--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_13_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_13_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4158810.191482799</v>
+        <v>-4159488.372790331</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>311885.1970183192</v>
+        <v>311885.1970183196</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058547</v>
+        <v>632041.4518058543</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>67.20002703306984</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="I11" t="n">
-        <v>46.38701225037788</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>33.06238140451855</v>
+        <v>33.0623814045185</v>
       </c>
       <c r="T11" t="n">
-        <v>28.20762267428244</v>
+        <v>28.20762267428239</v>
       </c>
       <c r="U11" t="n">
-        <v>55.93811835407753</v>
+        <v>55.93811835407747</v>
       </c>
       <c r="V11" t="n">
-        <v>122.7111663740571</v>
+        <v>113.5870392834476</v>
       </c>
       <c r="W11" t="n">
-        <v>122.7111663740571</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>68.33127368232489</v>
       </c>
       <c r="T12" t="n">
-        <v>122.7111663740571</v>
+        <v>20.73635203332425</v>
       </c>
       <c r="U12" t="n">
-        <v>122.7111663740571</v>
+        <v>43.01612417394762</v>
       </c>
       <c r="V12" t="n">
-        <v>106.0280872279876</v>
+        <v>46.43735102801256</v>
       </c>
       <c r="W12" t="n">
-        <v>72.49301368962196</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="X12" t="n">
-        <v>23.10134455208097</v>
+        <v>23.10134455208092</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.17271624663599</v>
+        <v>29.17271624663593</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.00327449327883</v>
+        <v>9.003274493278779</v>
       </c>
       <c r="S13" t="n">
-        <v>41.14309824393263</v>
+        <v>41.14309824393258</v>
       </c>
       <c r="T13" t="n">
-        <v>29.52954681521121</v>
+        <v>29.52954681521115</v>
       </c>
       <c r="U13" t="n">
-        <v>94.44472612269442</v>
+        <v>94.44472612269436</v>
       </c>
       <c r="V13" t="n">
-        <v>50.89744529706027</v>
+        <v>50.89744529706022</v>
       </c>
       <c r="W13" t="n">
-        <v>96.09913720194569</v>
+        <v>96.09913720194564</v>
       </c>
       <c r="X13" t="n">
-        <v>27.7078855208529</v>
+        <v>27.70788552085284</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.92970292677879</v>
+        <v>22.92970292677873</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>67.2000270330699</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>67.20002703306976</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>46.38701225037795</v>
+        <v>46.38701225037786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>33.06238140451864</v>
+        <v>33.06238140451853</v>
       </c>
       <c r="T14" t="n">
-        <v>28.2076226742825</v>
+        <v>28.20762267428242</v>
       </c>
       <c r="U14" t="n">
-        <v>55.93811835407767</v>
+        <v>55.93811835407762</v>
       </c>
       <c r="V14" t="n">
-        <v>122.7111663740571</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.141010788491251</v>
+        <v>6.141010788491247</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="T15" t="n">
-        <v>122.7111663740571</v>
+        <v>56.87095226554847</v>
       </c>
       <c r="U15" t="n">
-        <v>43.01612417394774</v>
+        <v>43.01612417394765</v>
       </c>
       <c r="V15" t="n">
-        <v>46.43735102801267</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="W15" t="n">
-        <v>122.7111663740571</v>
+        <v>72.49301368962193</v>
       </c>
       <c r="X15" t="n">
-        <v>106.0279594792389</v>
+        <v>23.10134455208095</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.17271624663604</v>
+        <v>29.17271624663596</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.003274493278896</v>
+        <v>9.003274493278811</v>
       </c>
       <c r="S16" t="n">
-        <v>41.14309824393269</v>
+        <v>41.14309824393261</v>
       </c>
       <c r="T16" t="n">
-        <v>29.52954681521127</v>
+        <v>29.52954681521118</v>
       </c>
       <c r="U16" t="n">
-        <v>94.44472612269448</v>
+        <v>94.44472612269439</v>
       </c>
       <c r="V16" t="n">
-        <v>50.89744529706033</v>
+        <v>50.89744529706024</v>
       </c>
       <c r="W16" t="n">
-        <v>96.09913720194575</v>
+        <v>96.09913720194567</v>
       </c>
       <c r="X16" t="n">
-        <v>27.70788552085295</v>
+        <v>27.70788552085287</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.92970292677884</v>
+        <v>22.92970292677876</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>53.44089762924068</v>
+        <v>53.44089762924062</v>
       </c>
       <c r="C17" t="n">
-        <v>29.55915463258617</v>
+        <v>29.55915463258611</v>
       </c>
       <c r="D17" t="n">
-        <v>17.12581689363464</v>
+        <v>17.12581689363458</v>
       </c>
       <c r="E17" t="n">
-        <v>50.83256931304351</v>
+        <v>50.83256931304345</v>
       </c>
       <c r="F17" t="n">
-        <v>82.55290689142083</v>
+        <v>82.55290689142078</v>
       </c>
       <c r="G17" t="n">
-        <v>98.18116457427357</v>
+        <v>98.18116457427351</v>
       </c>
       <c r="H17" t="n">
-        <v>26.26582637653706</v>
+        <v>26.26582637653701</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0.2334408605593694</v>
+        <v>0.2334408605593126</v>
       </c>
       <c r="W17" t="n">
-        <v>17.25012107717424</v>
+        <v>17.25012107717419</v>
       </c>
       <c r="X17" t="n">
-        <v>39.13637154611348</v>
+        <v>39.13637154611342</v>
       </c>
       <c r="Y17" t="n">
-        <v>61.63922466985724</v>
+        <v>61.63922466985719</v>
       </c>
     </row>
     <row r="18">
@@ -1965,22 +1965,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.141010788491251</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="T18" t="n">
-        <v>101.9429845537782</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>122.7111663740571</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>108.0839953422693</v>
       </c>
     </row>
     <row r="19">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53.44089762924074</v>
+        <v>53.44089762924057</v>
       </c>
       <c r="C20" t="n">
-        <v>29.55915463258623</v>
+        <v>29.55915463258606</v>
       </c>
       <c r="D20" t="n">
-        <v>17.12581689363469</v>
+        <v>17.12581689363452</v>
       </c>
       <c r="E20" t="n">
-        <v>50.83256931304356</v>
+        <v>50.83256931304339</v>
       </c>
       <c r="F20" t="n">
-        <v>82.55290689142001</v>
+        <v>82.55290689142103</v>
       </c>
       <c r="G20" t="n">
-        <v>98.18116457427362</v>
+        <v>98.18116457427345</v>
       </c>
       <c r="H20" t="n">
-        <v>26.26582637653713</v>
+        <v>26.26582637653696</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0.2334408605594263</v>
+        <v>0.2334408605592557</v>
       </c>
       <c r="W20" t="n">
-        <v>17.2501210771743</v>
+        <v>17.25012107717413</v>
       </c>
       <c r="X20" t="n">
-        <v>39.13637154611354</v>
+        <v>39.13637154611337</v>
       </c>
       <c r="Y20" t="n">
-        <v>61.6392246698573</v>
+        <v>61.63922466985713</v>
       </c>
     </row>
     <row r="21">
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2202,31 +2202,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.141010788491251</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>122.7111663740571</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>101.9429845537782</v>
+        <v>101.942984553778</v>
       </c>
       <c r="U21" t="n">
-        <v>122.7111663740571</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>122.7111663740571</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>53.44089762924074</v>
+        <v>53.44089762924057</v>
       </c>
       <c r="C23" t="n">
-        <v>29.55915463258623</v>
+        <v>29.55915463258606</v>
       </c>
       <c r="D23" t="n">
-        <v>17.12581689363469</v>
+        <v>17.12581689363452</v>
       </c>
       <c r="E23" t="n">
-        <v>50.83256931304356</v>
+        <v>50.83256931304339</v>
       </c>
       <c r="F23" t="n">
-        <v>82.55290689142089</v>
+        <v>82.55290689142072</v>
       </c>
       <c r="G23" t="n">
-        <v>98.18116457427362</v>
+        <v>98.18116457427345</v>
       </c>
       <c r="H23" t="n">
-        <v>26.26582637653713</v>
+        <v>26.26582637653696</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0.2334408605594263</v>
+        <v>0.2334408605592557</v>
       </c>
       <c r="W23" t="n">
-        <v>17.2501210771743</v>
+        <v>17.25012107717413</v>
       </c>
       <c r="X23" t="n">
-        <v>39.13637154611354</v>
+        <v>39.13637154611337</v>
       </c>
       <c r="Y23" t="n">
-        <v>61.6392246698573</v>
+        <v>61.63922466985713</v>
       </c>
     </row>
     <row r="24">
@@ -2439,31 +2439,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R24" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>122.7111663740571</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>101.942984553778</v>
       </c>
       <c r="Y24" t="n">
-        <v>108.0839953422694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.1666563115508</v>
+        <v>161.1666563115507</v>
       </c>
       <c r="C26" t="n">
         <v>137.2849133148962</v>
@@ -2570,10 +2570,10 @@
         <v>205.9069232565836</v>
       </c>
       <c r="H26" t="n">
-        <v>133.9915850588472</v>
+        <v>133.9915850588471</v>
       </c>
       <c r="I26" t="n">
-        <v>27.67799807148495</v>
+        <v>27.67799807148492</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.35336722562562</v>
+        <v>14.35336722562571</v>
       </c>
       <c r="T26" t="n">
-        <v>9.498608495389503</v>
+        <v>9.498608495389474</v>
       </c>
       <c r="U26" t="n">
         <v>37.22910417518396</v>
@@ -2618,7 +2618,7 @@
         <v>124.9758797594843</v>
       </c>
       <c r="X26" t="n">
-        <v>146.8621302284236</v>
+        <v>146.8621302284235</v>
       </c>
       <c r="Y26" t="n">
         <v>169.3649833521673</v>
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>89.40532331088399</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.141010788491251</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3654897447971</v>
+        <v>25.58452794108666</v>
       </c>
       <c r="S27" t="n">
-        <v>191.4847933493538</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.027337854431368</v>
+        <v>2.027337854431339</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2276940613373</v>
+        <v>24.30710999505471</v>
       </c>
       <c r="V27" t="n">
-        <v>27.72833684911967</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>53.78399951072902</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>4.392330373188031</v>
+        <v>4.392330373188003</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.46370206774304</v>
+        <v>10.46370206774301</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.43408406503969</v>
+        <v>22.43408406503966</v>
       </c>
       <c r="T28" t="n">
-        <v>10.82053263631827</v>
+        <v>10.82053263631824</v>
       </c>
       <c r="U28" t="n">
-        <v>75.73571194380148</v>
+        <v>75.73571194380145</v>
       </c>
       <c r="V28" t="n">
-        <v>32.18843111816733</v>
+        <v>32.1884311181673</v>
       </c>
       <c r="W28" t="n">
-        <v>77.39012302305275</v>
+        <v>77.39012302305272</v>
       </c>
       <c r="X28" t="n">
-        <v>8.998871341959955</v>
+        <v>8.998871341959926</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.220688747885845</v>
+        <v>4.220688747885816</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>133.9915850588471</v>
       </c>
       <c r="I29" t="n">
-        <v>27.67799807148489</v>
+        <v>27.67799807148524</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,10 +2843,10 @@
         <v>14.35336722562556</v>
       </c>
       <c r="T29" t="n">
-        <v>9.498608495389778</v>
+        <v>9.498608495389446</v>
       </c>
       <c r="U29" t="n">
-        <v>37.22910417518463</v>
+        <v>37.22910417518453</v>
       </c>
       <c r="V29" t="n">
         <v>107.9591995428694</v>
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>14.81687081438671</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2913,28 +2913,28 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.141010788491251</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3654897447971</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.4847933493538</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.027337854431311</v>
+        <v>2.02733785443131</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2276940613373</v>
+        <v>24.30710999505468</v>
       </c>
       <c r="V30" t="n">
-        <v>27.72833684911961</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.78399951072896</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>93.79765368407224</v>
+        <v>4.392330373187974</v>
       </c>
       <c r="Y30" t="n">
         <v>10.46370206774299</v>
@@ -3032,7 +3032,7 @@
         <v>137.2849133148962</v>
       </c>
       <c r="D32" t="n">
-        <v>124.8515755759446</v>
+        <v>124.8515755759447</v>
       </c>
       <c r="E32" t="n">
         <v>158.5583279953535</v>
@@ -3047,7 +3047,7 @@
         <v>133.9915850588471</v>
       </c>
       <c r="I32" t="n">
-        <v>27.67799807148487</v>
+        <v>27.67799807148489</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.35336722562553</v>
+        <v>14.35336722562556</v>
       </c>
       <c r="T32" t="n">
-        <v>9.498608495389417</v>
+        <v>9.498608495389552</v>
       </c>
       <c r="U32" t="n">
-        <v>37.2291041751845</v>
+        <v>37.2291041751844</v>
       </c>
       <c r="V32" t="n">
         <v>107.9591995428694</v>
       </c>
       <c r="W32" t="n">
-        <v>124.9758797594842</v>
+        <v>124.9758797594843</v>
       </c>
       <c r="X32" t="n">
         <v>146.8621302284235</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.3649833521672</v>
+        <v>169.3649833521673</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.141010788491251</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R33" t="n">
-        <v>134.3654897447971</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.4847933493538</v>
       </c>
       <c r="T33" t="n">
-        <v>2.027337854431282</v>
+        <v>12.87756684383005</v>
       </c>
       <c r="U33" t="n">
-        <v>24.30710999505465</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V33" t="n">
-        <v>142.5360927019208</v>
+        <v>27.72833684911961</v>
       </c>
       <c r="W33" t="n">
-        <v>53.78399951072893</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>4.392330373187946</v>
+        <v>4.392330373187974</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.46370206774296</v>
+        <v>10.46370206774299</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.43408406503961</v>
+        <v>22.43408406503963</v>
       </c>
       <c r="T34" t="n">
-        <v>10.82053263631818</v>
+        <v>10.82053263631821</v>
       </c>
       <c r="U34" t="n">
-        <v>75.73571194380139</v>
+        <v>75.73571194380142</v>
       </c>
       <c r="V34" t="n">
-        <v>32.18843111816724</v>
+        <v>32.18843111816727</v>
       </c>
       <c r="W34" t="n">
-        <v>77.39012302305267</v>
+        <v>77.39012302305269</v>
       </c>
       <c r="X34" t="n">
-        <v>8.99887134195987</v>
+        <v>8.998871341959898</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.22068874788576</v>
+        <v>4.220688747885788</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>125.776029588889</v>
+        <v>125.7760295888891</v>
       </c>
       <c r="C35" t="n">
-        <v>101.8942865922345</v>
+        <v>101.8942865922346</v>
       </c>
       <c r="D35" t="n">
-        <v>89.46094885328299</v>
+        <v>89.46094885328307</v>
       </c>
       <c r="E35" t="n">
         <v>123.1677012726919</v>
       </c>
       <c r="F35" t="n">
-        <v>154.8880388510692</v>
+        <v>154.8880388510693</v>
       </c>
       <c r="G35" t="n">
-        <v>170.5162965339219</v>
+        <v>170.516296533922</v>
       </c>
       <c r="H35" t="n">
-        <v>98.60095833618541</v>
+        <v>98.6009583361855</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.838477452522993</v>
+        <v>1.838477452522966</v>
       </c>
       <c r="V35" t="n">
-        <v>72.56857282020772</v>
+        <v>72.56857282020781</v>
       </c>
       <c r="W35" t="n">
-        <v>89.58525303682259</v>
+        <v>89.58525303682268</v>
       </c>
       <c r="X35" t="n">
-        <v>111.4715035057618</v>
+        <v>111.4715035057619</v>
       </c>
       <c r="Y35" t="n">
-        <v>133.9743566295056</v>
+        <v>133.9743566295057</v>
       </c>
     </row>
     <row r="36">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>42.36670531733343</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3387,25 +3387,25 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.141010788491251</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R36" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S36" t="n">
-        <v>145.9445286066677</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T36" t="n">
-        <v>214.947921920714</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2276940613373</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>18.3933727880673</v>
+        <v>18.39337278806738</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>40.34508522113975</v>
+        <v>40.34508522113983</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>41.99949630039103</v>
+        <v>41.99949630039112</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3624,28 +3624,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R39" t="n">
-        <v>38.13981835101166</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T39" t="n">
-        <v>214.947921920714</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2276940613373</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>207.7158095879618</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.551106103699652</v>
+        <v>9.551106103699505</v>
       </c>
       <c r="V41" t="n">
         <v>80.28120147138449</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.141010788491251</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3870,19 +3870,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U42" t="n">
         <v>237.2276940613373</v>
       </c>
       <c r="V42" t="n">
-        <v>0.05033877763472105</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>119.537565445475</v>
+        <v>64.19548101262104</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>109.6069152434113</v>
       </c>
       <c r="D44" t="n">
-        <v>97.17357750445976</v>
+        <v>97.17357750445979</v>
       </c>
       <c r="E44" t="n">
-        <v>130.8803299238686</v>
+        <v>130.8803299238687</v>
       </c>
       <c r="F44" t="n">
         <v>162.600667502246</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.551106103699638</v>
+        <v>9.551106103699667</v>
       </c>
       <c r="V44" t="n">
-        <v>80.28120147138449</v>
+        <v>80.28120147138452</v>
       </c>
       <c r="W44" t="n">
-        <v>97.29788168799936</v>
+        <v>97.29788168799939</v>
       </c>
       <c r="X44" t="n">
         <v>119.1841321569386</v>
@@ -4101,25 +4101,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>115.3010236728636</v>
       </c>
       <c r="T45" t="n">
-        <v>214.947921920714</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276940613373</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>61.42548604930854</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>26.10600143924407</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>48.05771387231652</v>
+        <v>48.05771387231655</v>
       </c>
       <c r="V46" t="n">
-        <v>4.51043304668238</v>
+        <v>4.510433046682408</v>
       </c>
       <c r="W46" t="n">
-        <v>49.7121249515678</v>
+        <v>49.71212495156783</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>56.67246123959919</v>
+        <v>133.7675664150326</v>
       </c>
       <c r="C11" t="n">
-        <v>56.67246123959919</v>
+        <v>133.7675664150326</v>
       </c>
       <c r="D11" t="n">
-        <v>56.67246123959919</v>
+        <v>133.7675664150326</v>
       </c>
       <c r="E11" t="n">
-        <v>56.67246123959919</v>
+        <v>133.7675664150326</v>
       </c>
       <c r="F11" t="n">
-        <v>56.67246123959919</v>
+        <v>133.7675664150326</v>
       </c>
       <c r="G11" t="n">
-        <v>56.67246123959919</v>
+        <v>133.7675664150326</v>
       </c>
       <c r="H11" t="n">
-        <v>56.67246123959919</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="I11" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="J11" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="K11" t="n">
-        <v>9.816893309924568</v>
+        <v>42.00566750967187</v>
       </c>
       <c r="L11" t="n">
-        <v>131.3009480202411</v>
+        <v>90.39279676088353</v>
       </c>
       <c r="M11" t="n">
-        <v>252.7850027305576</v>
+        <v>211.8768514711999</v>
       </c>
       <c r="N11" t="n">
-        <v>374.2690574408741</v>
+        <v>333.3609061815162</v>
       </c>
       <c r="O11" t="n">
-        <v>490.8446654962284</v>
+        <v>369.3606107859113</v>
       </c>
       <c r="P11" t="n">
-        <v>490.8446654962284</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="Q11" t="n">
-        <v>490.8446654962284</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="R11" t="n">
-        <v>490.8446654962284</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="S11" t="n">
-        <v>457.4483206431793</v>
+        <v>457.4483206431786</v>
       </c>
       <c r="T11" t="n">
-        <v>428.9557724873385</v>
+        <v>428.9557724873379</v>
       </c>
       <c r="U11" t="n">
-        <v>372.4526226347348</v>
+        <v>372.4526226347343</v>
       </c>
       <c r="V11" t="n">
-        <v>248.5019495296266</v>
+        <v>257.7182395201406</v>
       </c>
       <c r="W11" t="n">
-        <v>124.5512764245182</v>
+        <v>257.7182395201406</v>
       </c>
       <c r="X11" t="n">
-        <v>124.5512764245182</v>
+        <v>257.7182395201406</v>
       </c>
       <c r="Y11" t="n">
-        <v>124.5512764245182</v>
+        <v>257.7182395201406</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="C12" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="D12" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="E12" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="F12" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="G12" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="H12" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="I12" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="J12" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="K12" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="L12" t="n">
-        <v>41.68857104703282</v>
+        <v>41.68857104703261</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1726257573494</v>
+        <v>163.172625757349</v>
       </c>
       <c r="N12" t="n">
-        <v>284.6566804676659</v>
+        <v>284.6566804676653</v>
       </c>
       <c r="O12" t="n">
-        <v>406.1407351779824</v>
+        <v>406.1407351779816</v>
       </c>
       <c r="P12" t="n">
-        <v>490.8446654962284</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="Q12" t="n">
-        <v>490.8446654962284</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="R12" t="n">
-        <v>490.8446654962284</v>
+        <v>366.8939923911196</v>
       </c>
       <c r="S12" t="n">
-        <v>490.8446654962284</v>
+        <v>297.8725038231147</v>
       </c>
       <c r="T12" t="n">
-        <v>366.8939923911202</v>
+        <v>276.9266936884437</v>
       </c>
       <c r="U12" t="n">
-        <v>242.943319286012</v>
+        <v>233.4760632097087</v>
       </c>
       <c r="V12" t="n">
-        <v>135.8442412779437</v>
+        <v>186.5696480298981</v>
       </c>
       <c r="W12" t="n">
-        <v>62.61897492479019</v>
+        <v>62.61897492479006</v>
       </c>
       <c r="X12" t="n">
-        <v>39.28428345804173</v>
+        <v>39.28428345804166</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="C13" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="D13" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="E13" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="F13" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="G13" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="H13" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="I13" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="J13" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="K13" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="L13" t="n">
-        <v>131.3009480202411</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="M13" t="n">
-        <v>131.3009480202411</v>
+        <v>131.3009480202409</v>
       </c>
       <c r="N13" t="n">
-        <v>252.7850027305576</v>
+        <v>252.7850027305572</v>
       </c>
       <c r="O13" t="n">
-        <v>252.7850027305576</v>
+        <v>318.6055623903593</v>
       </c>
       <c r="P13" t="n">
-        <v>318.6055623903599</v>
+        <v>318.6055623903593</v>
       </c>
       <c r="Q13" t="n">
-        <v>385.3268090894748</v>
+        <v>385.3268090894743</v>
       </c>
       <c r="R13" t="n">
-        <v>376.2325924295972</v>
+        <v>376.2325924295968</v>
       </c>
       <c r="S13" t="n">
-        <v>334.6739073347158</v>
+        <v>334.6739073347154</v>
       </c>
       <c r="T13" t="n">
-        <v>304.8460822688459</v>
+        <v>304.8460822688455</v>
       </c>
       <c r="U13" t="n">
-        <v>209.447369013599</v>
+        <v>209.4473690135987</v>
       </c>
       <c r="V13" t="n">
-        <v>158.0358081074775</v>
+        <v>158.0358081074773</v>
       </c>
       <c r="W13" t="n">
-        <v>60.96597254995658</v>
+        <v>60.96597254995645</v>
       </c>
       <c r="X13" t="n">
-        <v>32.97820939757991</v>
+        <v>32.97820939757984</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>56.67246123959927</v>
+        <v>124.5512764245181</v>
       </c>
       <c r="C14" t="n">
-        <v>56.67246123959927</v>
+        <v>124.5512764245181</v>
       </c>
       <c r="D14" t="n">
-        <v>56.67246123959927</v>
+        <v>124.5512764245181</v>
       </c>
       <c r="E14" t="n">
-        <v>56.67246123959927</v>
+        <v>124.5512764245181</v>
       </c>
       <c r="F14" t="n">
-        <v>56.67246123959927</v>
+        <v>124.5512764245181</v>
       </c>
       <c r="G14" t="n">
-        <v>56.67246123959927</v>
+        <v>56.67246123959917</v>
       </c>
       <c r="H14" t="n">
-        <v>56.67246123959927</v>
+        <v>56.67246123959917</v>
       </c>
       <c r="I14" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="J14" t="n">
-        <v>9.816893309924568</v>
+        <v>126.9687252395235</v>
       </c>
       <c r="K14" t="n">
-        <v>122.2774678859343</v>
+        <v>163.4897222199882</v>
       </c>
       <c r="L14" t="n">
-        <v>170.6645971371459</v>
+        <v>211.8768514711999</v>
       </c>
       <c r="M14" t="n">
-        <v>292.1486518474624</v>
+        <v>333.3609061815162</v>
       </c>
       <c r="N14" t="n">
-        <v>369.3606107859119</v>
+        <v>454.8449608918326</v>
       </c>
       <c r="O14" t="n">
-        <v>490.8446654962284</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="P14" t="n">
-        <v>490.8446654962284</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="Q14" t="n">
-        <v>490.8446654962284</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="R14" t="n">
-        <v>490.8446654962284</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="S14" t="n">
-        <v>457.4483206431793</v>
+        <v>457.4483206431786</v>
       </c>
       <c r="T14" t="n">
-        <v>428.9557724873384</v>
+        <v>428.9557724873378</v>
       </c>
       <c r="U14" t="n">
-        <v>372.4526226347347</v>
+        <v>372.4526226347342</v>
       </c>
       <c r="V14" t="n">
-        <v>248.5019495296265</v>
+        <v>372.4526226347342</v>
       </c>
       <c r="W14" t="n">
-        <v>124.5512764245184</v>
+        <v>248.5019495296261</v>
       </c>
       <c r="X14" t="n">
-        <v>124.5512764245184</v>
+        <v>248.5019495296261</v>
       </c>
       <c r="Y14" t="n">
-        <v>124.5512764245184</v>
+        <v>248.5019495296261</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="C15" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="D15" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="E15" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="F15" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="G15" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="H15" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="I15" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="J15" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="K15" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="L15" t="n">
-        <v>41.68857104703282</v>
+        <v>41.68857104703261</v>
       </c>
       <c r="M15" t="n">
-        <v>163.1726257573494</v>
+        <v>163.172625757349</v>
       </c>
       <c r="N15" t="n">
-        <v>284.6566804676659</v>
+        <v>284.6566804676653</v>
       </c>
       <c r="O15" t="n">
-        <v>406.1407351779824</v>
+        <v>406.1407351779816</v>
       </c>
       <c r="P15" t="n">
-        <v>490.8446654962284</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="Q15" t="n">
-        <v>484.6416242957322</v>
+        <v>484.6416242957314</v>
       </c>
       <c r="R15" t="n">
-        <v>484.6416242957322</v>
+        <v>484.6416242957314</v>
       </c>
       <c r="S15" t="n">
-        <v>484.6416242957322</v>
+        <v>360.6909511906234</v>
       </c>
       <c r="T15" t="n">
-        <v>360.690951190624</v>
+        <v>303.2455448617866</v>
       </c>
       <c r="U15" t="n">
-        <v>317.2403207118889</v>
+        <v>259.7949143830516</v>
       </c>
       <c r="V15" t="n">
-        <v>270.3339055320781</v>
+        <v>135.8442412779436</v>
       </c>
       <c r="W15" t="n">
-        <v>146.3832324269699</v>
+        <v>62.61897492479012</v>
       </c>
       <c r="X15" t="n">
-        <v>39.28428345804178</v>
+        <v>39.28428345804168</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="C16" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="D16" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="E16" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="F16" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="G16" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="H16" t="n">
-        <v>9.816893309924568</v>
+        <v>37.96230469048967</v>
       </c>
       <c r="I16" t="n">
-        <v>9.816893309924568</v>
+        <v>37.96230469048967</v>
       </c>
       <c r="J16" t="n">
-        <v>9.816893309924568</v>
+        <v>111.5294106002553</v>
       </c>
       <c r="K16" t="n">
-        <v>131.3009480202411</v>
+        <v>111.5294106002553</v>
       </c>
       <c r="L16" t="n">
-        <v>131.3009480202411</v>
+        <v>111.5294106002553</v>
       </c>
       <c r="M16" t="n">
-        <v>252.7850027305576</v>
+        <v>111.5294106002553</v>
       </c>
       <c r="N16" t="n">
-        <v>263.8427543791588</v>
+        <v>233.0134653105716</v>
       </c>
       <c r="O16" t="n">
-        <v>385.3268090894753</v>
+        <v>263.8427543791583</v>
       </c>
       <c r="P16" t="n">
-        <v>385.3268090894753</v>
+        <v>385.3268090894746</v>
       </c>
       <c r="Q16" t="n">
-        <v>385.3268090894753</v>
+        <v>385.3268090894746</v>
       </c>
       <c r="R16" t="n">
-        <v>376.2325924295976</v>
+        <v>376.232592429597</v>
       </c>
       <c r="S16" t="n">
-        <v>334.6739073347161</v>
+        <v>334.6739073347156</v>
       </c>
       <c r="T16" t="n">
-        <v>304.8460822688461</v>
+        <v>304.8460822688457</v>
       </c>
       <c r="U16" t="n">
-        <v>209.4473690135992</v>
+        <v>209.4473690135989</v>
       </c>
       <c r="V16" t="n">
-        <v>158.0358081074776</v>
+        <v>158.0358081074774</v>
       </c>
       <c r="W16" t="n">
-        <v>60.96597254995669</v>
+        <v>60.9659725499565</v>
       </c>
       <c r="X16" t="n">
-        <v>32.97820939757997</v>
+        <v>32.97820939757987</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>317.4102657154754</v>
+        <v>317.4102657154752</v>
       </c>
       <c r="C17" t="n">
         <v>287.552533763368</v>
       </c>
       <c r="D17" t="n">
-        <v>270.2537288203027</v>
+        <v>270.253728820303</v>
       </c>
       <c r="E17" t="n">
-        <v>218.9076992111679</v>
+        <v>218.9076992111677</v>
       </c>
       <c r="F17" t="n">
-        <v>135.520924573369</v>
+        <v>135.5209245733689</v>
       </c>
       <c r="G17" t="n">
-        <v>36.34803106400241</v>
+        <v>36.34803106400234</v>
       </c>
       <c r="H17" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="I17" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="J17" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="K17" t="n">
-        <v>131.3009480202411</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="L17" t="n">
-        <v>197.6721590901694</v>
+        <v>58.20402256113621</v>
       </c>
       <c r="M17" t="n">
-        <v>280.3881232683325</v>
+        <v>140.9199867392994</v>
       </c>
       <c r="N17" t="n">
-        <v>357.600082206782</v>
+        <v>240.9222386393985</v>
       </c>
       <c r="O17" t="n">
-        <v>393.5997868111771</v>
+        <v>276.9219432437936</v>
       </c>
       <c r="P17" t="n">
-        <v>393.5997868111771</v>
+        <v>276.9219432437936</v>
       </c>
       <c r="Q17" t="n">
-        <v>393.5997868111771</v>
+        <v>398.40599795411</v>
       </c>
       <c r="R17" t="n">
-        <v>393.5997868111771</v>
+        <v>398.40599795411</v>
       </c>
       <c r="S17" t="n">
-        <v>393.5997868111771</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="T17" t="n">
-        <v>490.8446654962284</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="U17" t="n">
-        <v>490.8446654962284</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="V17" t="n">
-        <v>490.6088666471784</v>
+        <v>490.6088666471778</v>
       </c>
       <c r="W17" t="n">
-        <v>473.18450192276</v>
+        <v>473.1845019227594</v>
       </c>
       <c r="X17" t="n">
-        <v>433.652813492342</v>
+        <v>433.6528134923418</v>
       </c>
       <c r="Y17" t="n">
-        <v>371.3909703914761</v>
+        <v>371.3909703914759</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="C18" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="D18" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="E18" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="F18" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="G18" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="H18" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="I18" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="J18" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="K18" t="n">
-        <v>9.816893309924568</v>
+        <v>41.68857104703261</v>
       </c>
       <c r="L18" t="n">
-        <v>41.68857104703282</v>
+        <v>41.68857104703261</v>
       </c>
       <c r="M18" t="n">
-        <v>163.1726257573494</v>
+        <v>163.172625757349</v>
       </c>
       <c r="N18" t="n">
-        <v>284.6566804676659</v>
+        <v>284.6566804676653</v>
       </c>
       <c r="O18" t="n">
-        <v>406.1407351779824</v>
+        <v>406.1407351779816</v>
       </c>
       <c r="P18" t="n">
-        <v>490.8446654962284</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="Q18" t="n">
-        <v>484.6416242957322</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="R18" t="n">
-        <v>360.690951190624</v>
+        <v>366.8939923911196</v>
       </c>
       <c r="S18" t="n">
-        <v>360.690951190624</v>
+        <v>242.9433192860116</v>
       </c>
       <c r="T18" t="n">
-        <v>257.718239520141</v>
+        <v>242.9433192860116</v>
       </c>
       <c r="U18" t="n">
-        <v>133.7675664150328</v>
+        <v>242.9433192860116</v>
       </c>
       <c r="V18" t="n">
-        <v>9.816893309924568</v>
+        <v>118.9926461809036</v>
       </c>
       <c r="W18" t="n">
-        <v>9.816893309924568</v>
+        <v>118.9926461809036</v>
       </c>
       <c r="X18" t="n">
-        <v>9.816893309924568</v>
+        <v>118.9926461809036</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="C19" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="D19" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="E19" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="F19" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="G19" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="H19" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="I19" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="J19" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="K19" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="L19" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="M19" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="N19" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="O19" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="P19" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="R19" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="S19" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="T19" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="U19" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="V19" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="W19" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="X19" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
     </row>
     <row r="20">
@@ -5726,73 +5726,73 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>317.4102657154755</v>
+        <v>317.4102657154756</v>
       </c>
       <c r="C20" t="n">
-        <v>287.5525337633681</v>
+        <v>287.5525337633684</v>
       </c>
       <c r="D20" t="n">
-        <v>270.2537288203027</v>
+        <v>270.2537288203032</v>
       </c>
       <c r="E20" t="n">
-        <v>218.9076992111678</v>
+        <v>218.9076992111684</v>
       </c>
       <c r="F20" t="n">
-        <v>135.5209245733698</v>
+        <v>135.5209245733694</v>
       </c>
       <c r="G20" t="n">
-        <v>36.34803106400248</v>
+        <v>36.3480310640023</v>
       </c>
       <c r="H20" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="I20" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="J20" t="n">
-        <v>9.816893309924568</v>
+        <v>68.60689087596927</v>
       </c>
       <c r="K20" t="n">
-        <v>9.816893309924568</v>
+        <v>68.60689087596927</v>
       </c>
       <c r="L20" t="n">
-        <v>58.20402256113621</v>
+        <v>116.9940201271809</v>
       </c>
       <c r="M20" t="n">
-        <v>140.9199867392993</v>
+        <v>199.7099843053441</v>
       </c>
       <c r="N20" t="n">
-        <v>262.4040414496159</v>
+        <v>276.9219432437936</v>
       </c>
       <c r="O20" t="n">
-        <v>298.403746054011</v>
+        <v>398.4059979541099</v>
       </c>
       <c r="P20" t="n">
-        <v>298.403746054011</v>
+        <v>398.4059979541099</v>
       </c>
       <c r="Q20" t="n">
-        <v>301.1611192690595</v>
+        <v>398.4059979541099</v>
       </c>
       <c r="R20" t="n">
-        <v>301.1611192690595</v>
+        <v>398.4059979541099</v>
       </c>
       <c r="S20" t="n">
-        <v>393.5997868111771</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="T20" t="n">
-        <v>490.8446654962284</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="U20" t="n">
-        <v>490.8446654962284</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="V20" t="n">
-        <v>490.6088666471783</v>
+        <v>490.6088666471778</v>
       </c>
       <c r="W20" t="n">
-        <v>473.1845019227599</v>
+        <v>473.1845019227595</v>
       </c>
       <c r="X20" t="n">
-        <v>433.6528134923422</v>
+        <v>433.652813492342</v>
       </c>
       <c r="Y20" t="n">
         <v>371.3909703914762</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9.816893309924568</v>
+        <v>133.7675664150326</v>
       </c>
       <c r="C21" t="n">
-        <v>9.816893309924568</v>
+        <v>133.7675664150326</v>
       </c>
       <c r="D21" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="E21" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="F21" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="G21" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="H21" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="I21" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="J21" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="K21" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="L21" t="n">
-        <v>41.68857104703282</v>
+        <v>41.68857104703261</v>
       </c>
       <c r="M21" t="n">
-        <v>163.1726257573494</v>
+        <v>163.172625757349</v>
       </c>
       <c r="N21" t="n">
-        <v>284.6566804676659</v>
+        <v>284.6566804676653</v>
       </c>
       <c r="O21" t="n">
-        <v>406.1407351779824</v>
+        <v>406.1407351779816</v>
       </c>
       <c r="P21" t="n">
-        <v>490.8446654962284</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="Q21" t="n">
-        <v>484.6416242957322</v>
+        <v>484.6416242957314</v>
       </c>
       <c r="R21" t="n">
-        <v>484.6416242957322</v>
+        <v>484.6416242957314</v>
       </c>
       <c r="S21" t="n">
-        <v>360.690951190624</v>
+        <v>484.6416242957314</v>
       </c>
       <c r="T21" t="n">
-        <v>257.718239520141</v>
+        <v>381.6689126252486</v>
       </c>
       <c r="U21" t="n">
-        <v>133.7675664150328</v>
+        <v>381.6689126252486</v>
       </c>
       <c r="V21" t="n">
-        <v>133.7675664150328</v>
+        <v>381.6689126252486</v>
       </c>
       <c r="W21" t="n">
-        <v>9.816893309924568</v>
+        <v>381.6689126252486</v>
       </c>
       <c r="X21" t="n">
-        <v>9.816893309924568</v>
+        <v>257.7182395201406</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.816893309924568</v>
+        <v>133.7675664150326</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="C22" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="D22" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="E22" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="F22" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="G22" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="H22" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="I22" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="J22" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="K22" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="L22" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="M22" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="N22" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="O22" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="P22" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="R22" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="S22" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="T22" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="U22" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="V22" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="W22" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="X22" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
     </row>
     <row r="23">
@@ -5969,70 +5969,70 @@
         <v>287.5525337633686</v>
       </c>
       <c r="D23" t="n">
-        <v>270.2537288203032</v>
+        <v>270.2537288203034</v>
       </c>
       <c r="E23" t="n">
-        <v>218.9076992111683</v>
+        <v>218.9076992111686</v>
       </c>
       <c r="F23" t="n">
-        <v>135.5209245733696</v>
+        <v>135.5209245733699</v>
       </c>
       <c r="G23" t="n">
-        <v>36.34803106400248</v>
+        <v>36.3480310640023</v>
       </c>
       <c r="H23" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="I23" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="J23" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="K23" t="n">
-        <v>116.7734626462206</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="L23" t="n">
-        <v>165.1605918974323</v>
+        <v>58.20402256113621</v>
       </c>
       <c r="M23" t="n">
-        <v>247.8765560755954</v>
+        <v>140.9199867392994</v>
       </c>
       <c r="N23" t="n">
-        <v>369.3606107859119</v>
+        <v>218.1319456777489</v>
       </c>
       <c r="O23" t="n">
-        <v>490.8446654962284</v>
+        <v>254.131650282144</v>
       </c>
       <c r="P23" t="n">
-        <v>490.8446654962284</v>
+        <v>369.3606107859113</v>
       </c>
       <c r="Q23" t="n">
-        <v>490.8446654962284</v>
+        <v>369.3606107859113</v>
       </c>
       <c r="R23" t="n">
-        <v>490.8446654962284</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="S23" t="n">
-        <v>490.8446654962284</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="T23" t="n">
-        <v>490.8446654962284</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="U23" t="n">
-        <v>490.8446654962284</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="V23" t="n">
-        <v>490.6088666471784</v>
+        <v>490.6088666471779</v>
       </c>
       <c r="W23" t="n">
-        <v>473.18450192276</v>
+        <v>473.1845019227596</v>
       </c>
       <c r="X23" t="n">
-        <v>433.6528134923423</v>
+        <v>433.652813492342</v>
       </c>
       <c r="Y23" t="n">
-        <v>371.3909703914766</v>
+        <v>371.3909703914762</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="C24" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="D24" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="E24" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="F24" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="G24" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="H24" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="I24" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="J24" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="K24" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="L24" t="n">
-        <v>41.68857104703282</v>
+        <v>41.68857104703261</v>
       </c>
       <c r="M24" t="n">
-        <v>163.1726257573494</v>
+        <v>163.172625757349</v>
       </c>
       <c r="N24" t="n">
-        <v>284.6566804676659</v>
+        <v>284.6566804676653</v>
       </c>
       <c r="O24" t="n">
-        <v>406.1407351779824</v>
+        <v>406.1407351779816</v>
       </c>
       <c r="P24" t="n">
-        <v>490.8446654962284</v>
+        <v>490.8446654962277</v>
       </c>
       <c r="Q24" t="n">
-        <v>490.8446654962284</v>
+        <v>484.6416242957314</v>
       </c>
       <c r="R24" t="n">
-        <v>366.8939923911202</v>
+        <v>360.6909511906234</v>
       </c>
       <c r="S24" t="n">
-        <v>366.8939923911202</v>
+        <v>360.6909511906234</v>
       </c>
       <c r="T24" t="n">
-        <v>242.943319286012</v>
+        <v>360.6909511906234</v>
       </c>
       <c r="U24" t="n">
-        <v>118.9926461809038</v>
+        <v>236.7402780855154</v>
       </c>
       <c r="V24" t="n">
-        <v>118.9926461809038</v>
+        <v>236.7402780855154</v>
       </c>
       <c r="W24" t="n">
-        <v>118.9926461809038</v>
+        <v>112.7896049804074</v>
       </c>
       <c r="X24" t="n">
-        <v>118.9926461809038</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="C25" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="D25" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="E25" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="F25" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="G25" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="H25" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="I25" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="J25" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="K25" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="L25" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="M25" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="N25" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="O25" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="P25" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="R25" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="S25" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="T25" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="U25" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="V25" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="W25" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="X25" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.816893309924568</v>
+        <v>9.816893309924554</v>
       </c>
     </row>
     <row r="26">
@@ -6206,40 +6206,40 @@
         <v>885.8369123686424</v>
       </c>
       <c r="D26" t="n">
-        <v>759.724209766678</v>
+        <v>759.7242097666779</v>
       </c>
       <c r="E26" t="n">
-        <v>599.564282498644</v>
+        <v>599.5642824986439</v>
       </c>
       <c r="F26" t="n">
         <v>407.3636102019461</v>
       </c>
       <c r="G26" t="n">
-        <v>199.3768190336799</v>
+        <v>199.3768190336798</v>
       </c>
       <c r="H26" t="n">
-        <v>64.03178362070292</v>
+        <v>64.0317836207029</v>
       </c>
       <c r="I26" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="J26" t="n">
         <v>171.7479657778251</v>
       </c>
       <c r="K26" t="n">
-        <v>377.2225660613046</v>
+        <v>377.2225660613047</v>
       </c>
       <c r="L26" t="n">
-        <v>636.401073538136</v>
+        <v>636.4010735381362</v>
       </c>
       <c r="M26" t="n">
-        <v>929.9084159419197</v>
+        <v>929.9084159419192</v>
       </c>
       <c r="N26" t="n">
         <v>1217.911753105989</v>
       </c>
       <c r="O26" t="n">
-        <v>1464.702835936004</v>
+        <v>1464.702835936003</v>
       </c>
       <c r="P26" t="n">
         <v>1662.071556543468</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>126.3826171958535</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="C27" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="D27" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="E27" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="F27" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="G27" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="H27" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="I27" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="J27" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="K27" t="n">
-        <v>74.94981493268951</v>
+        <v>74.94981493268952</v>
       </c>
       <c r="L27" t="n">
         <v>193.509405900894</v>
@@ -6327,28 +6327,28 @@
         <v>794.5378533682771</v>
       </c>
       <c r="R27" t="n">
-        <v>658.8151364543406</v>
+        <v>768.6948958520279</v>
       </c>
       <c r="S27" t="n">
-        <v>465.3961532731752</v>
+        <v>768.6948958520279</v>
       </c>
       <c r="T27" t="n">
-        <v>463.348337258598</v>
+        <v>766.6470798374507</v>
       </c>
       <c r="U27" t="n">
-        <v>223.7244038633078</v>
+        <v>742.0944434788096</v>
       </c>
       <c r="V27" t="n">
-        <v>195.7159828035909</v>
+        <v>499.0147253824437</v>
       </c>
       <c r="W27" t="n">
-        <v>141.3887105705313</v>
+        <v>229.616156112735</v>
       </c>
       <c r="X27" t="n">
-        <v>136.9520132238767</v>
+        <v>225.1794587660805</v>
       </c>
       <c r="Y27" t="n">
-        <v>126.3826171958535</v>
+        <v>214.6100627380573</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="C28" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="D28" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="E28" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="F28" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="G28" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="H28" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="I28" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="J28" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="K28" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="L28" t="n">
-        <v>36.07420981112217</v>
+        <v>75.04272983029077</v>
       </c>
       <c r="M28" t="n">
-        <v>36.07420981112217</v>
+        <v>75.04272983029077</v>
       </c>
       <c r="N28" t="n">
-        <v>107.1248568666258</v>
+        <v>270.2039500901374</v>
       </c>
       <c r="O28" t="n">
-        <v>107.1248568666258</v>
+        <v>270.2039500901374</v>
       </c>
       <c r="P28" t="n">
-        <v>260.5952678013796</v>
+        <v>270.2039500901374</v>
       </c>
       <c r="Q28" t="n">
-        <v>260.5952678013796</v>
+        <v>270.2039500901374</v>
       </c>
       <c r="R28" t="n">
-        <v>270.2039500901376</v>
+        <v>270.2039500901374</v>
       </c>
       <c r="S28" t="n">
-        <v>247.5432591153501</v>
+        <v>247.5432591153499</v>
       </c>
       <c r="T28" t="n">
-        <v>236.613428169574</v>
+        <v>236.6134281695739</v>
       </c>
       <c r="U28" t="n">
-        <v>160.112709034421</v>
+        <v>160.1127090344209</v>
       </c>
       <c r="V28" t="n">
-        <v>127.5991422483934</v>
+        <v>127.5991422483933</v>
       </c>
       <c r="W28" t="n">
-        <v>49.42730081096641</v>
+        <v>49.42730081096634</v>
       </c>
       <c r="X28" t="n">
-        <v>40.33753177868363</v>
+        <v>40.33753177868359</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1024.508541979648</v>
+        <v>1024.508541979649</v>
       </c>
       <c r="C29" t="n">
-        <v>885.8369123686422</v>
+        <v>885.8369123686424</v>
       </c>
       <c r="D29" t="n">
-        <v>759.7242097666779</v>
+        <v>759.7242097666781</v>
       </c>
       <c r="E29" t="n">
-        <v>599.5642824986439</v>
+        <v>599.5642824986442</v>
       </c>
       <c r="F29" t="n">
-        <v>407.363610201946</v>
+        <v>407.3636102019464</v>
       </c>
       <c r="G29" t="n">
-        <v>199.3768190336797</v>
+        <v>199.3768190336801</v>
       </c>
       <c r="H29" t="n">
-        <v>64.03178362070287</v>
+        <v>64.03178362070321</v>
       </c>
       <c r="I29" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="J29" t="n">
-        <v>171.7479657778252</v>
+        <v>171.747965777825</v>
       </c>
       <c r="K29" t="n">
-        <v>377.2225660613049</v>
+        <v>377.2225660613046</v>
       </c>
       <c r="L29" t="n">
-        <v>636.4010735381363</v>
+        <v>636.4010735381362</v>
       </c>
       <c r="M29" t="n">
-        <v>929.9084159419192</v>
+        <v>929.9084159419191</v>
       </c>
       <c r="N29" t="n">
-        <v>1217.911753105989</v>
+        <v>1217.911753105988</v>
       </c>
       <c r="O29" t="n">
         <v>1464.702835936003</v>
       </c>
       <c r="P29" t="n">
-        <v>1662.071556543468</v>
+        <v>1662.071556543467</v>
       </c>
       <c r="Q29" t="n">
         <v>1785.188566519004</v>
@@ -6494,16 +6494,16 @@
         <v>1779.617585787406</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.012430054896</v>
+        <v>1742.012430054897</v>
       </c>
       <c r="V29" t="n">
-        <v>1632.962733546947</v>
+        <v>1632.962733546948</v>
       </c>
       <c r="W29" t="n">
         <v>1506.72447116363</v>
       </c>
       <c r="X29" t="n">
-        <v>1358.378885074313</v>
+        <v>1358.378885074314</v>
       </c>
       <c r="Y29" t="n">
         <v>1187.303144314548</v>
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>36.07420981112217</v>
+        <v>225.4864840781584</v>
       </c>
       <c r="C30" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="D30" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="E30" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="F30" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="G30" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="H30" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="I30" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="J30" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="K30" t="n">
-        <v>74.94981493268951</v>
+        <v>74.94981493268952</v>
       </c>
       <c r="L30" t="n">
         <v>193.509405900894</v>
@@ -6564,28 +6564,28 @@
         <v>794.5378533682771</v>
       </c>
       <c r="R30" t="n">
-        <v>658.8151364543406</v>
+        <v>794.5378533682771</v>
       </c>
       <c r="S30" t="n">
-        <v>465.3961532731752</v>
+        <v>794.5378533682771</v>
       </c>
       <c r="T30" t="n">
-        <v>463.3483372585981</v>
+        <v>792.4900373537</v>
       </c>
       <c r="U30" t="n">
-        <v>223.7244038633079</v>
+        <v>767.937400995059</v>
       </c>
       <c r="V30" t="n">
-        <v>195.7159828035911</v>
+        <v>524.857682898693</v>
       </c>
       <c r="W30" t="n">
-        <v>141.3887105705315</v>
+        <v>255.4591136289844</v>
       </c>
       <c r="X30" t="n">
-        <v>46.64360583914539</v>
+        <v>251.0224162823299</v>
       </c>
       <c r="Y30" t="n">
-        <v>36.07420981112217</v>
+        <v>240.4530202543066</v>
       </c>
     </row>
     <row r="31">
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="C31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="D31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="E31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="F31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="G31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="H31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="I31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="J31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="K31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="L31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="M31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="N31" t="n">
-        <v>184.9607793539182</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="O31" t="n">
-        <v>184.9607793539182</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="P31" t="n">
-        <v>184.9607793539182</v>
+        <v>189.544620745876</v>
       </c>
       <c r="Q31" t="n">
         <v>270.2039500901372</v>
@@ -6655,16 +6655,16 @@
         <v>160.1127090344208</v>
       </c>
       <c r="V31" t="n">
-        <v>127.5991422483933</v>
+        <v>127.5991422483932</v>
       </c>
       <c r="W31" t="n">
         <v>49.42730081096629</v>
       </c>
       <c r="X31" t="n">
-        <v>40.33753177868357</v>
+        <v>40.33753177868356</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1024.50854197965</v>
+        <v>1024.508541979649</v>
       </c>
       <c r="C32" t="n">
-        <v>885.8369123686435</v>
+        <v>885.8369123686423</v>
       </c>
       <c r="D32" t="n">
-        <v>759.7242097666775</v>
+        <v>759.7242097666776</v>
       </c>
       <c r="E32" t="n">
         <v>599.5642824986437</v>
       </c>
       <c r="F32" t="n">
-        <v>407.363610201946</v>
+        <v>407.3636102019459</v>
       </c>
       <c r="G32" t="n">
         <v>199.3768190336797</v>
       </c>
       <c r="H32" t="n">
-        <v>64.03178362070285</v>
+        <v>64.03178362070287</v>
       </c>
       <c r="I32" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="J32" t="n">
         <v>171.7479657778252</v>
@@ -6710,7 +6710,7 @@
         <v>929.9084159419192</v>
       </c>
       <c r="N32" t="n">
-        <v>1217.911753105988</v>
+        <v>1217.911753105989</v>
       </c>
       <c r="O32" t="n">
         <v>1464.702835936003</v>
@@ -6719,31 +6719,31 @@
         <v>1662.071556543468</v>
       </c>
       <c r="Q32" t="n">
-        <v>1785.188566519005</v>
+        <v>1785.188566519004</v>
       </c>
       <c r="R32" t="n">
-        <v>1803.710490556109</v>
+        <v>1803.710490556108</v>
       </c>
       <c r="S32" t="n">
-        <v>1789.212139823154</v>
+        <v>1789.212139823153</v>
       </c>
       <c r="T32" t="n">
-        <v>1779.617585787407</v>
+        <v>1779.617585787406</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.012430054897</v>
+        <v>1742.012430054896</v>
       </c>
       <c r="V32" t="n">
-        <v>1632.962733546948</v>
+        <v>1632.962733546947</v>
       </c>
       <c r="W32" t="n">
-        <v>1506.724471163631</v>
+        <v>1506.72447116363</v>
       </c>
       <c r="X32" t="n">
-        <v>1358.378885074314</v>
+        <v>1358.378885074313</v>
       </c>
       <c r="Y32" t="n">
-        <v>1187.303144314549</v>
+        <v>1187.303144314548</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>225.4864840781585</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="C33" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="D33" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="E33" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="F33" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="G33" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="H33" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="I33" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="J33" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="K33" t="n">
         <v>74.94981493268952</v>
@@ -6801,28 +6801,28 @@
         <v>794.5378533682771</v>
       </c>
       <c r="R33" t="n">
-        <v>658.8151364543406</v>
+        <v>794.5378533682771</v>
       </c>
       <c r="S33" t="n">
-        <v>465.3961532731752</v>
+        <v>601.1188701871116</v>
       </c>
       <c r="T33" t="n">
-        <v>463.3483372585981</v>
+        <v>588.1112269105156</v>
       </c>
       <c r="U33" t="n">
-        <v>438.7957008999571</v>
+        <v>348.4872935152254</v>
       </c>
       <c r="V33" t="n">
-        <v>294.8198496858957</v>
+        <v>320.4788724555086</v>
       </c>
       <c r="W33" t="n">
-        <v>240.4925774528361</v>
+        <v>51.0803031857999</v>
       </c>
       <c r="X33" t="n">
-        <v>236.0558801061817</v>
+        <v>46.64360583914538</v>
       </c>
       <c r="Y33" t="n">
-        <v>225.4864840781585</v>
+        <v>36.07420981112216</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="C34" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="D34" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="E34" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="F34" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="G34" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="H34" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="I34" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="J34" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="K34" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="L34" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="M34" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
       <c r="N34" t="n">
-        <v>116.7335391553831</v>
+        <v>95.84719891455376</v>
       </c>
       <c r="O34" t="n">
-        <v>116.7335391553831</v>
+        <v>270.2039500901372</v>
       </c>
       <c r="P34" t="n">
-        <v>270.203950090137</v>
+        <v>270.2039500901372</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.203950090137</v>
+        <v>270.2039500901372</v>
       </c>
       <c r="R34" t="n">
-        <v>270.203950090137</v>
+        <v>270.2039500901372</v>
       </c>
       <c r="S34" t="n">
-        <v>247.5432591153496</v>
+        <v>247.5432591153497</v>
       </c>
       <c r="T34" t="n">
-        <v>236.6134281695736</v>
+        <v>236.6134281695738</v>
       </c>
       <c r="U34" t="n">
-        <v>160.1127090344207</v>
+        <v>160.1127090344208</v>
       </c>
       <c r="V34" t="n">
         <v>127.5991422483932</v>
       </c>
       <c r="W34" t="n">
-        <v>49.42730081096624</v>
+        <v>49.42730081096629</v>
       </c>
       <c r="X34" t="n">
-        <v>40.33753177868355</v>
+        <v>40.33753177868356</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.07420981112217</v>
+        <v>36.07420981112216</v>
       </c>
     </row>
     <row r="35">
@@ -6911,58 +6911,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>772.2454280561331</v>
+        <v>772.2454280561324</v>
       </c>
       <c r="C35" t="n">
-        <v>669.321906245795</v>
+        <v>669.3219062457943</v>
       </c>
       <c r="D35" t="n">
-        <v>578.9573114444991</v>
+        <v>578.9573114444983</v>
       </c>
       <c r="E35" t="n">
-        <v>454.5454919771335</v>
+        <v>454.5454919771327</v>
       </c>
       <c r="F35" t="n">
-        <v>298.092927481104</v>
+        <v>298.0929274811031</v>
       </c>
       <c r="G35" t="n">
-        <v>125.8542441135061</v>
+        <v>125.8542441135062</v>
       </c>
       <c r="H35" t="n">
         <v>26.25731650119761</v>
       </c>
       <c r="I35" t="n">
-        <v>33.89281886586261</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="J35" t="n">
-        <v>204.6032952880007</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="K35" t="n">
-        <v>445.1146160269153</v>
+        <v>266.7686372401122</v>
       </c>
       <c r="L35" t="n">
-        <v>538.6860281553143</v>
+        <v>315.1557664913238</v>
       </c>
       <c r="M35" t="n">
-        <v>621.4019923334773</v>
+        <v>397.871730669487</v>
       </c>
       <c r="N35" t="n">
-        <v>698.6139512719268</v>
+        <v>720.9117882889913</v>
       </c>
       <c r="O35" t="n">
-        <v>980.4417545573767</v>
+        <v>922.3066535660099</v>
       </c>
       <c r="P35" t="n">
-        <v>1212.847195620276</v>
+        <v>1154.712094628909</v>
       </c>
       <c r="Q35" t="n">
-        <v>1212.847195620276</v>
+        <v>1312.86582505988</v>
       </c>
       <c r="R35" t="n">
-        <v>1266.405840112815</v>
+        <v>1312.86582505988</v>
       </c>
       <c r="S35" t="n">
-        <v>1287.232727014881</v>
+        <v>1312.86582505988</v>
       </c>
       <c r="T35" t="n">
         <v>1312.86582505988</v>
@@ -6980,7 +6980,7 @@
         <v>1034.619555549461</v>
       </c>
       <c r="Y35" t="n">
-        <v>899.2919225903644</v>
+        <v>899.2919225903638</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>26.25731650119761</v>
+        <v>258.4642426039242</v>
       </c>
       <c r="C36" t="n">
-        <v>26.25731650119761</v>
+        <v>69.05196833688794</v>
       </c>
       <c r="D36" t="n">
-        <v>26.25731650119761</v>
+        <v>69.05196833688794</v>
       </c>
       <c r="E36" t="n">
-        <v>26.25731650119761</v>
+        <v>69.05196833688794</v>
       </c>
       <c r="F36" t="n">
         <v>26.25731650119761</v>
@@ -7017,13 +7017,13 @@
         <v>26.25731650119761</v>
       </c>
       <c r="K36" t="n">
-        <v>65.13292162276494</v>
+        <v>65.13292162276497</v>
       </c>
       <c r="L36" t="n">
         <v>183.6925125909694</v>
       </c>
       <c r="M36" t="n">
-        <v>366.800627373684</v>
+        <v>366.8006273736841</v>
       </c>
       <c r="N36" t="n">
         <v>573.1749586663764</v>
@@ -7041,25 +7041,25 @@
         <v>648.9982431444161</v>
       </c>
       <c r="S36" t="n">
-        <v>501.5795273801053</v>
+        <v>455.5792599632506</v>
       </c>
       <c r="T36" t="n">
-        <v>284.460414328879</v>
+        <v>455.5792599632506</v>
       </c>
       <c r="U36" t="n">
-        <v>44.83648093358882</v>
+        <v>455.5792599632506</v>
       </c>
       <c r="V36" t="n">
-        <v>44.83648093358882</v>
+        <v>455.5792599632506</v>
       </c>
       <c r="W36" t="n">
-        <v>26.25731650119761</v>
+        <v>437.0000955308593</v>
       </c>
       <c r="X36" t="n">
-        <v>26.25731650119761</v>
+        <v>437.0000955308593</v>
       </c>
       <c r="Y36" t="n">
-        <v>26.25731650119761</v>
+        <v>437.0000955308593</v>
       </c>
     </row>
     <row r="37">
@@ -7102,34 +7102,34 @@
         <v>26.25731650119761</v>
       </c>
       <c r="M37" t="n">
-        <v>26.25731650119761</v>
+        <v>61.61808507979864</v>
       </c>
       <c r="N37" t="n">
-        <v>26.25731650119761</v>
+        <v>61.61808507979864</v>
       </c>
       <c r="O37" t="n">
-        <v>51.96128149720195</v>
+        <v>61.61808507979864</v>
       </c>
       <c r="P37" t="n">
-        <v>51.96128149720195</v>
+        <v>61.61808507979864</v>
       </c>
       <c r="Q37" t="n">
-        <v>51.96128149720195</v>
+        <v>61.61808507979864</v>
       </c>
       <c r="R37" t="n">
-        <v>96.60668424139502</v>
+        <v>106.2634878239916</v>
       </c>
       <c r="S37" t="n">
-        <v>109.4336614724408</v>
+        <v>106.2634878239916</v>
       </c>
       <c r="T37" t="n">
-        <v>109.4336614724408</v>
+        <v>106.2634878239916</v>
       </c>
       <c r="U37" t="n">
-        <v>68.68105013795622</v>
+        <v>65.51087648950694</v>
       </c>
       <c r="V37" t="n">
-        <v>68.68105013795622</v>
+        <v>68.6810501379563</v>
       </c>
       <c r="W37" t="n">
         <v>26.25731650119761</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>772.2454280561326</v>
+        <v>772.2454280561335</v>
       </c>
       <c r="C38" t="n">
-        <v>669.3219062457946</v>
+        <v>669.3219062457954</v>
       </c>
       <c r="D38" t="n">
-        <v>578.9573114444986</v>
+        <v>578.9573114444994</v>
       </c>
       <c r="E38" t="n">
-        <v>454.545491977133</v>
+        <v>454.5454919771338</v>
       </c>
       <c r="F38" t="n">
-        <v>298.0929274811037</v>
+        <v>298.0929274811042</v>
       </c>
       <c r="G38" t="n">
         <v>125.8542441135062</v>
@@ -7169,55 +7169,55 @@
         <v>26.25731650119761</v>
       </c>
       <c r="I38" t="n">
-        <v>33.89281886586252</v>
+        <v>26.25731650119761</v>
       </c>
       <c r="J38" t="n">
-        <v>136.3868258960395</v>
+        <v>196.9677929233356</v>
       </c>
       <c r="K38" t="n">
-        <v>136.3868258960395</v>
+        <v>196.9677929233356</v>
       </c>
       <c r="L38" t="n">
-        <v>430.6020538283059</v>
+        <v>491.183020855602</v>
       </c>
       <c r="M38" t="n">
-        <v>755.5363455306262</v>
+        <v>642.2288792355434</v>
       </c>
       <c r="N38" t="n">
-        <v>832.7483044690757</v>
+        <v>965.2689368550477</v>
       </c>
       <c r="O38" t="n">
-        <v>868.7480090734708</v>
+        <v>1001.268641459443</v>
       </c>
       <c r="P38" t="n">
-        <v>1101.15345013637</v>
+        <v>1233.674082522342</v>
       </c>
       <c r="Q38" t="n">
-        <v>1259.307180567341</v>
+        <v>1233.674082522342</v>
       </c>
       <c r="R38" t="n">
-        <v>1312.86582505988</v>
+        <v>1287.232727014881</v>
       </c>
       <c r="S38" t="n">
-        <v>1312.86582505988</v>
+        <v>1287.232727014881</v>
       </c>
       <c r="T38" t="n">
         <v>1312.86582505988</v>
       </c>
       <c r="U38" t="n">
-        <v>1311.008777128039</v>
+        <v>1311.00877712804</v>
       </c>
       <c r="V38" t="n">
-        <v>1237.707188420758</v>
+        <v>1237.707188420759</v>
       </c>
       <c r="W38" t="n">
-        <v>1147.217033838109</v>
+        <v>1147.21703383811</v>
       </c>
       <c r="X38" t="n">
-        <v>1034.619555549461</v>
+        <v>1034.619555549462</v>
       </c>
       <c r="Y38" t="n">
-        <v>899.291922590364</v>
+        <v>899.2919225903649</v>
       </c>
     </row>
     <row r="39">
@@ -7254,13 +7254,13 @@
         <v>26.25731650119761</v>
       </c>
       <c r="K39" t="n">
-        <v>65.13292162276494</v>
+        <v>65.13292162276497</v>
       </c>
       <c r="L39" t="n">
         <v>183.6925125909694</v>
       </c>
       <c r="M39" t="n">
-        <v>366.800627373684</v>
+        <v>366.8006273736841</v>
       </c>
       <c r="N39" t="n">
         <v>573.1749586663764</v>
@@ -7272,25 +7272,25 @@
         <v>790.9240012588486</v>
       </c>
       <c r="Q39" t="n">
-        <v>790.9240012588486</v>
+        <v>784.7209600583525</v>
       </c>
       <c r="R39" t="n">
-        <v>752.3989322174227</v>
+        <v>648.9982431444161</v>
       </c>
       <c r="S39" t="n">
-        <v>752.3989322174227</v>
+        <v>455.5792599632506</v>
       </c>
       <c r="T39" t="n">
-        <v>535.2798191661965</v>
+        <v>455.5792599632506</v>
       </c>
       <c r="U39" t="n">
-        <v>295.6558857709063</v>
+        <v>455.5792599632506</v>
       </c>
       <c r="V39" t="n">
-        <v>295.6558857709063</v>
+        <v>455.5792599632506</v>
       </c>
       <c r="W39" t="n">
-        <v>26.25731650119761</v>
+        <v>245.7653108845012</v>
       </c>
       <c r="X39" t="n">
         <v>26.25731650119761</v>
@@ -7345,19 +7345,19 @@
         <v>26.25731650119761</v>
       </c>
       <c r="O40" t="n">
-        <v>26.25731650119761</v>
+        <v>106.2634878239916</v>
       </c>
       <c r="P40" t="n">
-        <v>26.25731650119761</v>
+        <v>106.2634878239916</v>
       </c>
       <c r="Q40" t="n">
-        <v>26.25731650119761</v>
+        <v>106.2634878239916</v>
       </c>
       <c r="R40" t="n">
-        <v>70.90271924539059</v>
+        <v>106.2634878239916</v>
       </c>
       <c r="S40" t="n">
-        <v>81.93909467851168</v>
+        <v>106.2634878239916</v>
       </c>
       <c r="T40" t="n">
         <v>106.2634878239916</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>820.8965178780267</v>
+        <v>820.8965178780273</v>
       </c>
       <c r="C41" t="n">
-        <v>710.1824620766009</v>
+        <v>710.1824620766016</v>
       </c>
       <c r="D41" t="n">
-        <v>612.0273332842173</v>
+        <v>612.027333284218</v>
       </c>
       <c r="E41" t="n">
-        <v>479.8249798257641</v>
+        <v>479.8249798257649</v>
       </c>
       <c r="F41" t="n">
-        <v>315.581881338647</v>
+        <v>315.5818813386477</v>
       </c>
       <c r="G41" t="n">
-        <v>135.5526639799621</v>
+        <v>135.5526639799622</v>
       </c>
       <c r="H41" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="I41" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="J41" t="n">
-        <v>191.240176434039</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="K41" t="n">
-        <v>385.6781081794572</v>
+        <v>261.0410207508156</v>
       </c>
       <c r="L41" t="n">
-        <v>434.0652374306688</v>
+        <v>547.6207463184171</v>
       </c>
       <c r="M41" t="n">
-        <v>754.9737979252218</v>
+        <v>868.5293068129702</v>
       </c>
       <c r="N41" t="n">
-        <v>1070.378353180061</v>
+        <v>1056.955695561906</v>
       </c>
       <c r="O41" t="n">
-        <v>1106.378057784456</v>
+        <v>1331.147996482691</v>
       </c>
       <c r="P41" t="n">
-        <v>1331.14799648269</v>
+        <v>1331.147996482691</v>
       </c>
       <c r="Q41" t="n">
-        <v>1331.14799648269</v>
+        <v>1331.147996482691</v>
       </c>
       <c r="R41" t="n">
         <v>1377.071138610565</v>
       </c>
       <c r="S41" t="n">
-        <v>1390.262523147965</v>
+        <v>1390.262523147966</v>
       </c>
       <c r="T41" t="n">
         <v>1408.2601188283</v>
       </c>
       <c r="U41" t="n">
-        <v>1398.612536905371</v>
+        <v>1398.612536905372</v>
       </c>
       <c r="V41" t="n">
         <v>1317.520414207003</v>
       </c>
       <c r="W41" t="n">
-        <v>1219.239725633266</v>
+        <v>1219.239725633267</v>
       </c>
       <c r="X41" t="n">
-        <v>1098.85171335353</v>
+        <v>1098.851713353531</v>
       </c>
       <c r="Y41" t="n">
-        <v>955.7335464033456</v>
+        <v>955.7335464033463</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="C42" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="D42" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="E42" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="F42" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="G42" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="H42" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="I42" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="J42" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="K42" t="n">
-        <v>67.04080749813335</v>
+        <v>67.04080749813336</v>
       </c>
       <c r="L42" t="n">
         <v>185.6003984663378</v>
@@ -7506,34 +7506,34 @@
         <v>708.1279568159711</v>
       </c>
       <c r="P42" t="n">
-        <v>792.831887134217</v>
+        <v>792.8318871342171</v>
       </c>
       <c r="Q42" t="n">
-        <v>786.6288459337209</v>
+        <v>792.8318871342171</v>
       </c>
       <c r="R42" t="n">
-        <v>786.6288459337209</v>
+        <v>792.8318871342171</v>
       </c>
       <c r="S42" t="n">
-        <v>786.6288459337209</v>
+        <v>792.8318871342171</v>
       </c>
       <c r="T42" t="n">
-        <v>786.6288459337209</v>
+        <v>575.7127740829909</v>
       </c>
       <c r="U42" t="n">
-        <v>547.0049125384306</v>
+        <v>336.0888406877007</v>
       </c>
       <c r="V42" t="n">
-        <v>546.9540652882946</v>
+        <v>93.00912259133474</v>
       </c>
       <c r="W42" t="n">
-        <v>426.2090496868047</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="X42" t="n">
-        <v>206.7010553035011</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="Y42" t="n">
-        <v>206.7010553035011</v>
+        <v>28.16520237656601</v>
       </c>
     </row>
     <row r="43">
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="C43" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="D43" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="E43" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="F43" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="G43" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="H43" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="I43" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="J43" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="K43" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="L43" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="M43" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="N43" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="O43" t="n">
-        <v>131.4786083064314</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="P43" t="n">
-        <v>131.4786083064314</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="Q43" t="n">
         <v>131.4786083064314</v>
@@ -7606,13 +7606,13 @@
         <v>78.37947000441227</v>
       </c>
       <c r="W43" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="X43" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>820.8965178780265</v>
+        <v>820.8965178780267</v>
       </c>
       <c r="C44" t="n">
         <v>710.1824620766009</v>
@@ -7640,40 +7640,40 @@
         <v>135.5526639799622</v>
       </c>
       <c r="H44" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="I44" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="J44" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="K44" t="n">
         <v>261.0410207508156</v>
       </c>
       <c r="L44" t="n">
-        <v>547.6207463184171</v>
+        <v>309.4281500020273</v>
       </c>
       <c r="M44" t="n">
         <v>630.3367104965803</v>
       </c>
       <c r="N44" t="n">
-        <v>707.5486694350298</v>
+        <v>945.7412657514196</v>
       </c>
       <c r="O44" t="n">
-        <v>981.7409703558146</v>
+        <v>1183.490180130066</v>
       </c>
       <c r="P44" t="n">
-        <v>1206.510909054049</v>
+        <v>1408.2601188283</v>
       </c>
       <c r="Q44" t="n">
-        <v>1331.14799648269</v>
+        <v>1408.2601188283</v>
       </c>
       <c r="R44" t="n">
-        <v>1377.071138610565</v>
+        <v>1408.2601188283</v>
       </c>
       <c r="S44" t="n">
-        <v>1390.262523147965</v>
+        <v>1408.2601188283</v>
       </c>
       <c r="T44" t="n">
         <v>1408.2601188283</v>
@@ -7691,7 +7691,7 @@
         <v>1098.85171335353</v>
       </c>
       <c r="Y44" t="n">
-        <v>955.7335464033456</v>
+        <v>955.7335464033457</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="C45" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="D45" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="E45" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="F45" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="G45" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="H45" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="I45" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="J45" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="K45" t="n">
-        <v>67.04080749813335</v>
+        <v>67.04080749813336</v>
       </c>
       <c r="L45" t="n">
         <v>185.6003984663378</v>
@@ -7743,34 +7743,34 @@
         <v>708.1279568159711</v>
       </c>
       <c r="P45" t="n">
-        <v>792.831887134217</v>
+        <v>792.8318871342171</v>
       </c>
       <c r="Q45" t="n">
-        <v>792.831887134217</v>
+        <v>792.8318871342171</v>
       </c>
       <c r="R45" t="n">
-        <v>792.831887134217</v>
+        <v>657.1091702202807</v>
       </c>
       <c r="S45" t="n">
-        <v>792.831887134217</v>
+        <v>540.6434897426407</v>
       </c>
       <c r="T45" t="n">
-        <v>575.7127740829908</v>
+        <v>540.6434897426407</v>
       </c>
       <c r="U45" t="n">
-        <v>336.0888406877006</v>
+        <v>540.6434897426407</v>
       </c>
       <c r="V45" t="n">
-        <v>274.0428951833485</v>
+        <v>297.5637716462747</v>
       </c>
       <c r="W45" t="n">
-        <v>247.6731967598697</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="X45" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="C46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="D46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="E46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="F46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="G46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="H46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="I46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="J46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="K46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="L46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="M46" t="n">
-        <v>72.58834227970749</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="N46" t="n">
-        <v>72.58834227970749</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="O46" t="n">
-        <v>72.58834227970749</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="P46" t="n">
-        <v>72.58834227970749</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.58834227970749</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="R46" t="n">
-        <v>109.5982426592356</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="S46" t="n">
-        <v>114.7897175256164</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="T46" t="n">
-        <v>131.4786083064314</v>
+        <v>131.4786083064315</v>
       </c>
       <c r="U46" t="n">
-        <v>82.93546298085911</v>
+        <v>82.93546298085917</v>
       </c>
       <c r="V46" t="n">
-        <v>78.37947000441227</v>
+        <v>78.3794700044123</v>
       </c>
       <c r="W46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="X46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.165202376566</v>
+        <v>28.16520237656601</v>
       </c>
     </row>
   </sheetData>
@@ -8769,19 +8769,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>132.1051855825677</v>
+        <v>132.1051855825678</v>
       </c>
       <c r="L12" t="n">
-        <v>152.7409950383625</v>
+        <v>152.7409950383624</v>
       </c>
       <c r="M12" t="n">
-        <v>239.5303559843453</v>
+        <v>239.5303559843451</v>
       </c>
       <c r="N12" t="n">
-        <v>224.8661044510107</v>
+        <v>224.8661044510106</v>
       </c>
       <c r="O12" t="n">
-        <v>243.5449469681795</v>
+        <v>243.5449469681793</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9009,16 +9009,16 @@
         <v>132.1051855825678</v>
       </c>
       <c r="L15" t="n">
-        <v>152.7409950383626</v>
+        <v>152.7409950383624</v>
       </c>
       <c r="M15" t="n">
-        <v>239.5303559843454</v>
+        <v>239.5303559843452</v>
       </c>
       <c r="N15" t="n">
-        <v>224.8661044510108</v>
+        <v>224.8661044510106</v>
       </c>
       <c r="O15" t="n">
-        <v>243.5449469681795</v>
+        <v>243.5449469681794</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
@@ -9243,19 +9243,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>132.1051855825678</v>
+        <v>164.2987994584345</v>
       </c>
       <c r="L18" t="n">
-        <v>152.7409950383626</v>
+        <v>120.5473811624956</v>
       </c>
       <c r="M18" t="n">
-        <v>239.5303559843454</v>
+        <v>239.5303559843451</v>
       </c>
       <c r="N18" t="n">
-        <v>224.8661044510108</v>
+        <v>224.8661044510106</v>
       </c>
       <c r="O18" t="n">
-        <v>243.5449469681795</v>
+        <v>243.5449469681793</v>
       </c>
       <c r="P18" t="n">
         <v>206.3638740786793</v>
@@ -9483,16 +9483,16 @@
         <v>132.1051855825678</v>
       </c>
       <c r="L21" t="n">
-        <v>152.7409950383626</v>
+        <v>152.7409950383624</v>
       </c>
       <c r="M21" t="n">
-        <v>239.5303559843454</v>
+        <v>239.5303559843451</v>
       </c>
       <c r="N21" t="n">
-        <v>224.8661044510108</v>
+        <v>224.8661044510106</v>
       </c>
       <c r="O21" t="n">
-        <v>243.5449469681795</v>
+        <v>243.5449469681793</v>
       </c>
       <c r="P21" t="n">
         <v>206.3638740786793</v>
@@ -9720,16 +9720,16 @@
         <v>132.1051855825678</v>
       </c>
       <c r="L24" t="n">
-        <v>152.7409950383626</v>
+        <v>152.7409950383624</v>
       </c>
       <c r="M24" t="n">
-        <v>239.5303559843454</v>
+        <v>239.5303559843451</v>
       </c>
       <c r="N24" t="n">
-        <v>224.8661044510108</v>
+        <v>224.8661044510106</v>
       </c>
       <c r="O24" t="n">
-        <v>243.5449469681795</v>
+        <v>243.5449469681793</v>
       </c>
       <c r="P24" t="n">
         <v>206.3638740786793</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>112.6756434573739</v>
+        <v>57.16450411638672</v>
       </c>
       <c r="C11" t="n">
-        <v>155.9939274937892</v>
+        <v>155.9939274937891</v>
       </c>
       <c r="D11" t="n">
-        <v>143.5605897548377</v>
+        <v>143.5605897548376</v>
       </c>
       <c r="E11" t="n">
         <v>177.2673421742465</v>
@@ -23270,13 +23270,13 @@
         <v>208.9876797526238</v>
       </c>
       <c r="G11" t="n">
-        <v>224.6159374354766</v>
+        <v>224.6159374354765</v>
       </c>
       <c r="H11" t="n">
-        <v>152.7005992377401</v>
+        <v>29.98943286368312</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>46.38701225037781</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.957047347705284</v>
+        <v>13.08117443831469</v>
       </c>
       <c r="W11" t="n">
-        <v>20.97372756432017</v>
+        <v>143.6848939383772</v>
       </c>
       <c r="X11" t="n">
-        <v>165.5711444073165</v>
+        <v>165.5711444073164</v>
       </c>
       <c r="Y11" t="n">
-        <v>188.0739975310603</v>
+        <v>188.0739975310602</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>112.6756434573739</v>
+        <v>57.16450411638675</v>
       </c>
       <c r="C14" t="n">
         <v>155.9939274937892</v>
       </c>
       <c r="D14" t="n">
-        <v>143.5605897548377</v>
+        <v>143.5605897548376</v>
       </c>
       <c r="E14" t="n">
-        <v>177.2673421742466</v>
+        <v>177.2673421742465</v>
       </c>
       <c r="F14" t="n">
-        <v>208.9876797526239</v>
+        <v>208.9876797526238</v>
       </c>
       <c r="G14" t="n">
-        <v>224.6159374354766</v>
+        <v>157.4159104024067</v>
       </c>
       <c r="H14" t="n">
-        <v>152.7005992377402</v>
+        <v>152.7005992377401</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.957047347705341</v>
+        <v>126.6682137217624</v>
       </c>
       <c r="W14" t="n">
-        <v>20.97372756432023</v>
+        <v>20.97372756432031</v>
       </c>
       <c r="X14" t="n">
-        <v>165.5711444073166</v>
+        <v>165.5711444073165</v>
       </c>
       <c r="Y14" t="n">
-        <v>188.0739975310603</v>
+        <v>188.0739975310602</v>
       </c>
     </row>
     <row r="15">
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -26372,16 +26372,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>275420.9947649912</v>
+        <v>275420.9947649911</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>101147.8182889625</v>
+        <v>101147.8182889624</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>101147.8182889625</v>
+        <v>101147.8182889624</v>
       </c>
       <c r="M3" t="n">
-        <v>28312.50137812927</v>
+        <v>28312.50137812931</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68757.72909053833</v>
+        <v>68757.72909053828</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>451388.1479621753</v>
       </c>
       <c r="E4" t="n">
-        <v>344201.4566840516</v>
+        <v>344201.4566840517</v>
       </c>
       <c r="F4" t="n">
-        <v>344201.4566840515</v>
+        <v>344201.4566840517</v>
       </c>
       <c r="G4" t="n">
         <v>414704.5356053187</v>
@@ -26448,7 +26448,7 @@
         <v>413278.3638748868</v>
       </c>
       <c r="M4" t="n">
-        <v>412733.9956987766</v>
+        <v>412733.9956987765</v>
       </c>
       <c r="N4" t="n">
         <v>412733.9956987765</v>
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26051.3846553886</v>
+        <v>26051.38465538859</v>
       </c>
       <c r="F5" t="n">
         <v>26051.38465538859</v>
@@ -26485,10 +26485,10 @@
         <v>36680.62957505707</v>
       </c>
       <c r="H5" t="n">
-        <v>36680.62957505706</v>
+        <v>36680.62957505707</v>
       </c>
       <c r="I5" t="n">
-        <v>36680.62957505706</v>
+        <v>36680.62957505707</v>
       </c>
       <c r="J5" t="n">
         <v>47579.79330930412</v>
@@ -26497,7 +26497,7 @@
         <v>47579.79330930412</v>
       </c>
       <c r="L5" t="n">
-        <v>47579.79330930414</v>
+        <v>47579.79330930412</v>
       </c>
       <c r="M5" t="n">
         <v>43094.2089917089</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-485015.7479621753</v>
+        <v>-485020.2143463805</v>
       </c>
       <c r="C6" t="n">
-        <v>-485015.7479621753</v>
+        <v>-485020.2143463805</v>
       </c>
       <c r="D6" t="n">
-        <v>-485015.7479621753</v>
+        <v>-485020.2143463805</v>
       </c>
       <c r="E6" t="n">
-        <v>-645673.8361044314</v>
+        <v>-645983.1572540265</v>
       </c>
       <c r="F6" t="n">
-        <v>-370252.8413394401</v>
+        <v>-370562.1624890354</v>
       </c>
       <c r="G6" t="n">
-        <v>-552532.9834693383</v>
+        <v>-552532.9834693382</v>
       </c>
       <c r="H6" t="n">
-        <v>-451385.1651803757</v>
+        <v>-451385.1651803759</v>
       </c>
       <c r="I6" t="n">
         <v>-451385.1651803758</v>
@@ -26549,13 +26549,13 @@
         <v>-460858.1571841909</v>
       </c>
       <c r="L6" t="n">
-        <v>-562005.9754731534</v>
+        <v>-562005.9754731533</v>
       </c>
       <c r="M6" t="n">
         <v>-484140.7060686147</v>
       </c>
       <c r="N6" t="n">
-        <v>-455828.2046904853</v>
+        <v>-455828.2046904854</v>
       </c>
       <c r="O6" t="n">
         <v>-525490.4626275781</v>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="F2" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="G2" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="H2" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="I2" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="J2" t="n">
         <v>212.9205840662826</v>
@@ -26713,10 +26713,10 @@
         <v>212.9205840662826</v>
       </c>
       <c r="L2" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="M2" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="N2" t="n">
         <v>248.3112107889442</v>
@@ -26750,34 +26750,34 @@
         <v>103.8244619716956</v>
       </c>
       <c r="G3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="H3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="I3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="J3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="K3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="L3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="M3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="N3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="O3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
       <c r="P3" t="n">
-        <v>103.8244619716956</v>
+        <v>103.8244619716957</v>
       </c>
     </row>
     <row r="4">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="F4" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="G4" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="H4" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="I4" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="J4" t="n">
         <v>450.927622639027</v>
@@ -26817,7 +26817,7 @@
         <v>450.927622639027</v>
       </c>
       <c r="L4" t="n">
-        <v>450.9276226390272</v>
+        <v>450.927622639027</v>
       </c>
       <c r="M4" t="n">
         <v>328.2164562649701</v>
@@ -26826,10 +26826,10 @@
         <v>328.2164562649701</v>
       </c>
       <c r="O4" t="n">
-        <v>352.065029707075</v>
+        <v>352.0650297070751</v>
       </c>
       <c r="P4" t="n">
-        <v>352.065029707075</v>
+        <v>352.0650297070751</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>126.4347728612031</v>
+        <v>126.434772861203</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.48581120507961</v>
+        <v>86.48581120507953</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4347728612031</v>
+        <v>126.434772861203</v>
       </c>
       <c r="M2" t="n">
-        <v>35.39062672266158</v>
+        <v>35.39062672266164</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.77318255390293</v>
+        <v>78.77318255390284</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>328.21645626497</v>
+        <v>328.2164562649701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.84857344210491</v>
+        <v>23.84857344210502</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4347728612031</v>
+        <v>126.434772861203</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>86.48581120507961</v>
+        <v>86.48581120507953</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="C11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="D11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="E11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="F11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="G11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="H11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="I11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="J11" t="n">
-        <v>75.87638612011796</v>
+        <v>75.87638612011797</v>
       </c>
       <c r="K11" t="n">
-        <v>5.370482769838546</v>
+        <v>37.88439610291669</v>
       </c>
       <c r="L11" t="n">
-        <v>73.83527824152002</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>39.15968740621548</v>
+        <v>39.15968740621534</v>
       </c>
       <c r="N11" t="n">
-        <v>44.7192886584515</v>
+        <v>44.71928865845136</v>
       </c>
       <c r="O11" t="n">
-        <v>81.38980146561526</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.55824001833901</v>
+        <v>136.269406392396</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.55996792937715</v>
+        <v>88.55996792937718</v>
       </c>
       <c r="R11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="T11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="U11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="V11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="W11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="X11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="Y11" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
     </row>
     <row r="12">
@@ -28190,7 +28190,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J12" t="n">
-        <v>51.93601990319844</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.141010788491219</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R12" t="n">
-        <v>134.3654897447971</v>
+        <v>11.65432337074017</v>
       </c>
       <c r="S12" t="n">
-        <v>191.4847933493538</v>
+        <v>123.1535196670289</v>
       </c>
       <c r="T12" t="n">
-        <v>92.23675554665685</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="U12" t="n">
-        <v>114.5165276872802</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="V12" t="n">
-        <v>134.6208336874146</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="W12" t="n">
-        <v>194.2115698873896</v>
+        <v>143.9934172029547</v>
       </c>
       <c r="X12" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="Y12" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
     </row>
     <row r="13">
@@ -28275,46 +28275,46 @@
         <v>66.47413857346797</v>
       </c>
       <c r="L13" t="n">
-        <v>154.1516967876649</v>
+        <v>31.44053041360786</v>
       </c>
       <c r="M13" t="n">
-        <v>24.46691421597133</v>
+        <v>147.1780805900283</v>
       </c>
       <c r="N13" t="n">
-        <v>138.4992047233229</v>
+        <v>138.4992047233227</v>
       </c>
       <c r="O13" t="n">
-        <v>36.80265358589527</v>
+        <v>103.2880673836751</v>
       </c>
       <c r="P13" t="n">
-        <v>124.3853807582507</v>
+        <v>57.89996696047066</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="R13" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S13" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="T13" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="U13" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="V13" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="W13" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="X13" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="Y13" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="C14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="D14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="E14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="F14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="G14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="H14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="I14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="J14" t="n">
-        <v>75.87638612011799</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="K14" t="n">
-        <v>118.967022745606</v>
+        <v>42.26037870970194</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>39.15968740621557</v>
+        <v>39.15968740621537</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>44.71928865845139</v>
       </c>
       <c r="O14" t="n">
-        <v>86.34782838981964</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>13.55824001833908</v>
+        <v>13.55824001833907</v>
       </c>
       <c r="Q14" t="n">
         <v>88.55996792937719</v>
       </c>
       <c r="R14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="T14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="U14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="V14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="W14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="X14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="Y14" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
     </row>
     <row r="15">
@@ -28454,25 +28454,25 @@
         <v>134.3654897447971</v>
       </c>
       <c r="S15" t="n">
-        <v>191.4847933493538</v>
+        <v>68.77362697529691</v>
       </c>
       <c r="T15" t="n">
-        <v>92.23675554665685</v>
+        <v>158.0769696551655</v>
       </c>
       <c r="U15" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="V15" t="n">
-        <v>194.2115698873896</v>
+        <v>117.9377545413453</v>
       </c>
       <c r="W15" t="n">
-        <v>143.9934172029545</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="X15" t="n">
-        <v>111.2849549602317</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="Y15" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
     </row>
     <row r="16">
@@ -28500,58 +28500,58 @@
         <v>168.6959906883239</v>
       </c>
       <c r="H16" t="n">
-        <v>165.7818614221724</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="I16" t="n">
         <v>164.7090929584652</v>
       </c>
       <c r="J16" t="n">
-        <v>119.9013618977274</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="K16" t="n">
-        <v>189.1853049475251</v>
+        <v>66.47413857346798</v>
       </c>
       <c r="L16" t="n">
         <v>31.44053041360787</v>
       </c>
       <c r="M16" t="n">
-        <v>147.1780805900285</v>
+        <v>24.46691421597135</v>
       </c>
       <c r="N16" t="n">
-        <v>26.957484458964</v>
+        <v>138.4992047233227</v>
       </c>
       <c r="O16" t="n">
-        <v>159.5138199599524</v>
+        <v>67.94334961477071</v>
       </c>
       <c r="P16" t="n">
-        <v>57.89996696047067</v>
+        <v>180.6111333345276</v>
       </c>
       <c r="Q16" t="n">
         <v>126.8163712014149</v>
       </c>
       <c r="R16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="T16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="U16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="V16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="W16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="X16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.2115698873896</v>
+        <v>194.2115698873897</v>
       </c>
     </row>
     <row r="17">
@@ -28561,76 +28561,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="C17" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="D17" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="E17" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="F17" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="G17" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="H17" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="I17" t="n">
         <v>240.5985821377675</v>
       </c>
       <c r="J17" t="n">
-        <v>75.87638612011799</v>
+        <v>75.87638612011797</v>
       </c>
       <c r="K17" t="n">
-        <v>128.0816491438957</v>
+        <v>5.370482769838588</v>
       </c>
       <c r="L17" t="n">
-        <v>18.16573921082488</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>23.02049794106024</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.55824001833908</v>
+        <v>13.55824001833905</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.55996792937719</v>
+        <v>211.2711343034341</v>
       </c>
       <c r="R17" t="n">
         <v>194.2115698873897</v>
       </c>
       <c r="S17" t="n">
-        <v>227.2739512919082</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="T17" t="n">
-        <v>320.6463427485926</v>
+        <v>222.4191925616721</v>
       </c>
       <c r="U17" t="n">
         <v>250.1496882414672</v>
       </c>
       <c r="V17" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="W17" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="X17" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
       <c r="Y17" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485927</v>
       </c>
     </row>
     <row r="18">
@@ -28664,7 +28664,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J18" t="n">
-        <v>51.93601990319847</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,22 +28685,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R18" t="n">
-        <v>11.65432337073999</v>
+        <v>11.65432337074017</v>
       </c>
       <c r="S18" t="n">
-        <v>191.4847933493538</v>
+        <v>68.77362697529691</v>
       </c>
       <c r="T18" t="n">
-        <v>113.0049373669358</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U18" t="n">
-        <v>114.5165276872802</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V18" t="n">
-        <v>117.9377545413451</v>
+        <v>117.9377545413453</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28709,7 +28709,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>115.3002907917564</v>
       </c>
     </row>
     <row r="19">
@@ -28746,22 +28746,22 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K19" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346797</v>
       </c>
       <c r="L19" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360786</v>
       </c>
       <c r="M19" t="n">
-        <v>24.46691421597136</v>
+        <v>24.46691421597134</v>
       </c>
       <c r="N19" t="n">
-        <v>15.78803834926583</v>
+        <v>15.78803834926581</v>
       </c>
       <c r="O19" t="n">
-        <v>36.8026535858953</v>
+        <v>36.80265358589529</v>
       </c>
       <c r="P19" t="n">
-        <v>57.89996696047067</v>
+        <v>57.89996696047066</v>
       </c>
       <c r="Q19" t="n">
         <v>126.8163712014149</v>
@@ -28798,34 +28798,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="C20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="D20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="E20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="F20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="G20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="H20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="I20" t="n">
         <v>240.5985821377675</v>
       </c>
       <c r="J20" t="n">
-        <v>75.87638612011799</v>
+        <v>135.2602220454157</v>
       </c>
       <c r="K20" t="n">
-        <v>5.37048276983861</v>
+        <v>5.370482769838588</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28834,40 +28834,40 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>44.71928865845157</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>86.34782838981941</v>
       </c>
       <c r="P20" t="n">
-        <v>13.55824001833908</v>
+        <v>13.55824001833905</v>
       </c>
       <c r="Q20" t="n">
-        <v>91.34519339912318</v>
+        <v>88.55996792937718</v>
       </c>
       <c r="R20" t="n">
         <v>194.2115698873897</v>
       </c>
       <c r="S20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="T20" t="n">
-        <v>320.6463427485926</v>
+        <v>222.4191925616721</v>
       </c>
       <c r="U20" t="n">
         <v>250.1496882414672</v>
       </c>
       <c r="V20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="W20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="X20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="Y20" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
     </row>
     <row r="21">
@@ -28883,7 +28883,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>36.46114870252163</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -28901,7 +28901,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J21" t="n">
-        <v>51.93601990319847</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28928,25 +28928,25 @@
         <v>134.3654897447971</v>
       </c>
       <c r="S21" t="n">
-        <v>68.77362697529672</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T21" t="n">
-        <v>113.0049373669358</v>
+        <v>113.0049373669359</v>
       </c>
       <c r="U21" t="n">
-        <v>114.5165276872802</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>143.9934172029545</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>94.60174806541369</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>100.6731197599687</v>
       </c>
     </row>
     <row r="22">
@@ -28983,22 +28983,22 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K22" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346797</v>
       </c>
       <c r="L22" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360786</v>
       </c>
       <c r="M22" t="n">
-        <v>24.46691421597136</v>
+        <v>24.46691421597134</v>
       </c>
       <c r="N22" t="n">
-        <v>15.78803834926583</v>
+        <v>15.78803834926581</v>
       </c>
       <c r="O22" t="n">
-        <v>36.8026535858953</v>
+        <v>36.80265358589529</v>
       </c>
       <c r="P22" t="n">
-        <v>57.89996696047067</v>
+        <v>57.89996696047066</v>
       </c>
       <c r="Q22" t="n">
         <v>126.8163712014149</v>
@@ -29035,34 +29035,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="C23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="D23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="E23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="F23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="G23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="H23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="I23" t="n">
         <v>240.5985821377675</v>
       </c>
       <c r="J23" t="n">
-        <v>75.87638612011799</v>
+        <v>75.87638612011797</v>
       </c>
       <c r="K23" t="n">
-        <v>113.40742149337</v>
+        <v>5.370482769838588</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29071,19 +29071,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>44.71928865845157</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>86.34782838981964</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.55824001833908</v>
+        <v>129.9511294160838</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.55996792937719</v>
+        <v>88.55996792937718</v>
       </c>
       <c r="R23" t="n">
-        <v>194.2115698873897</v>
+        <v>316.9227362614465</v>
       </c>
       <c r="S23" t="n">
         <v>227.2739512919082</v>
@@ -29095,16 +29095,16 @@
         <v>250.1496882414672</v>
       </c>
       <c r="V23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="W23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="X23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
       <c r="Y23" t="n">
-        <v>320.6463427485926</v>
+        <v>320.6463427485928</v>
       </c>
     </row>
     <row r="24">
@@ -29138,7 +29138,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J24" t="n">
-        <v>51.93601990319847</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,31 +29159,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.141010788491251</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>11.65432337073999</v>
+        <v>11.65432337074017</v>
       </c>
       <c r="S24" t="n">
         <v>191.4847933493538</v>
       </c>
       <c r="T24" t="n">
-        <v>92.23675554665685</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U24" t="n">
-        <v>114.5165276872802</v>
+        <v>114.5165276872804</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>143.9934172029547</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>115.3699298856926</v>
       </c>
       <c r="Y24" t="n">
-        <v>115.3002907917562</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29220,22 +29220,22 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K25" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346797</v>
       </c>
       <c r="L25" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360786</v>
       </c>
       <c r="M25" t="n">
-        <v>24.46691421597136</v>
+        <v>24.46691421597134</v>
       </c>
       <c r="N25" t="n">
-        <v>15.78803834926583</v>
+        <v>15.78803834926581</v>
       </c>
       <c r="O25" t="n">
-        <v>36.8026535858953</v>
+        <v>36.80265358589529</v>
       </c>
       <c r="P25" t="n">
-        <v>57.89996696047067</v>
+        <v>57.89996696047066</v>
       </c>
       <c r="Q25" t="n">
         <v>126.8163712014149</v>
@@ -29305,7 +29305,7 @@
         <v>212.9205840662826</v>
       </c>
       <c r="M26" t="n">
-        <v>212.9205840662834</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="N26" t="n">
         <v>212.9205840662826</v>
@@ -29351,10 +29351,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>98.11282821348193</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29375,7 +29375,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J27" t="n">
-        <v>51.93601990319847</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29399,22 +29399,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>108.7809618037104</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T27" t="n">
         <v>212.9205840662826</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="V27" t="n">
-        <v>212.9205840662826</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>212.9205840662826</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>212.9205840662826</v>
@@ -29457,28 +29457,28 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K28" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346797</v>
       </c>
       <c r="L28" t="n">
-        <v>31.44053041360787</v>
+        <v>70.8026718471115</v>
       </c>
       <c r="M28" t="n">
-        <v>24.46691421597136</v>
+        <v>24.46691421597134</v>
       </c>
       <c r="N28" t="n">
-        <v>87.55636870836045</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="O28" t="n">
-        <v>36.8026535858953</v>
+        <v>36.80265358589529</v>
       </c>
       <c r="P28" t="n">
-        <v>212.9205840662826</v>
+        <v>57.89996696047066</v>
       </c>
       <c r="Q28" t="n">
         <v>126.8163712014149</v>
       </c>
       <c r="R28" t="n">
-        <v>212.9205840662826</v>
+        <v>203.2148443806685</v>
       </c>
       <c r="S28" t="n">
         <v>212.9205840662826</v>
@@ -29588,10 +29588,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>161.933623583279</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29612,7 +29612,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J30" t="n">
-        <v>51.93601990319847</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29636,25 +29636,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.4847933493538</v>
       </c>
       <c r="T30" t="n">
         <v>212.9205840662826</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>212.9205840662826</v>
-      </c>
-      <c r="W30" t="n">
-        <v>212.9205840662826</v>
-      </c>
-      <c r="X30" t="n">
-        <v>123.5152607553984</v>
       </c>
       <c r="Y30" t="n">
         <v>212.9205840662826</v>
@@ -29694,25 +29694,25 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K31" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346797</v>
       </c>
       <c r="L31" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360786</v>
       </c>
       <c r="M31" t="n">
-        <v>24.46691421597136</v>
+        <v>24.46691421597134</v>
       </c>
       <c r="N31" t="n">
-        <v>166.1785126349184</v>
+        <v>15.78803834926581</v>
       </c>
       <c r="O31" t="n">
-        <v>36.8026535858953</v>
+        <v>36.80265358589529</v>
       </c>
       <c r="P31" t="n">
-        <v>57.89996696047067</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Q31" t="n">
-        <v>212.9205840662826</v>
+        <v>208.2904412461232</v>
       </c>
       <c r="R31" t="n">
         <v>203.2148443806685</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="C32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="D32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="E32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="F32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="G32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="H32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="I32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="J32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="K32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="L32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="M32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="N32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="O32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="P32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="R32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="S32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="T32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="U32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="V32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="W32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="X32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
     </row>
     <row r="33">
@@ -29828,7 +29828,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -29849,7 +29849,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J33" t="n">
-        <v>51.93601990319847</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29873,28 +29873,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>212.9205840662827</v>
+        <v>202.0703550768839</v>
       </c>
       <c r="U33" t="n">
-        <v>212.9205840662827</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>98.11282821348149</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="W33" t="n">
-        <v>212.9205840662827</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
     </row>
     <row r="34">
@@ -29931,22 +29931,22 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K34" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346797</v>
       </c>
       <c r="L34" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360786</v>
       </c>
       <c r="M34" t="n">
-        <v>24.46691421597136</v>
+        <v>24.46691421597134</v>
       </c>
       <c r="N34" t="n">
-        <v>97.26210839397388</v>
+        <v>76.16479501939874</v>
       </c>
       <c r="O34" t="n">
-        <v>36.8026535858953</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="P34" t="n">
-        <v>212.9205840662827</v>
+        <v>57.89996696047066</v>
       </c>
       <c r="Q34" t="n">
         <v>126.8163712014149</v>
@@ -29955,25 +29955,25 @@
         <v>203.2148443806685</v>
       </c>
       <c r="S34" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="T34" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="U34" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="V34" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="W34" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="X34" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662826</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="C35" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="D35" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="E35" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="F35" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="G35" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="H35" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="I35" t="n">
-        <v>248.3112107889443</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="J35" t="n">
-        <v>248.3112107889443</v>
+        <v>75.87638612011797</v>
       </c>
       <c r="K35" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="L35" t="n">
-        <v>45.64068977493673</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="O35" t="n">
-        <v>248.3112107889443</v>
+        <v>167.0658188612359</v>
       </c>
       <c r="P35" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="Q35" t="n">
-        <v>88.55996792937719</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="R35" t="n">
-        <v>248.3112107889443</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S35" t="n">
-        <v>248.3112107889443</v>
+        <v>227.2739512919082</v>
       </c>
       <c r="T35" t="n">
-        <v>248.3112107889443</v>
+        <v>222.4191925616721</v>
       </c>
       <c r="U35" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="V35" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="W35" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="X35" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="Y35" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889442</v>
       </c>
     </row>
     <row r="36">
@@ -30062,10 +30062,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -30074,7 +30074,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>116.4567338025949</v>
       </c>
       <c r="G36" t="n">
         <v>148.7388978542471</v>
@@ -30086,7 +30086,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J36" t="n">
-        <v>51.93601990319847</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30113,19 +30113,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>45.54026474268616</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -30168,43 +30168,43 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K37" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346797</v>
       </c>
       <c r="L37" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360786</v>
       </c>
       <c r="M37" t="n">
-        <v>24.46691421597136</v>
+        <v>60.18486227516431</v>
       </c>
       <c r="N37" t="n">
-        <v>15.78803834926583</v>
+        <v>15.78803834926581</v>
       </c>
       <c r="O37" t="n">
-        <v>62.76625459196029</v>
+        <v>36.80265358589529</v>
       </c>
       <c r="P37" t="n">
-        <v>57.89996696047067</v>
+        <v>57.89996696047066</v>
       </c>
       <c r="Q37" t="n">
         <v>126.8163712014149</v>
       </c>
       <c r="R37" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="S37" t="n">
-        <v>248.3112107889443</v>
+        <v>235.3546681313223</v>
       </c>
       <c r="T37" t="n">
         <v>223.7411167026008</v>
       </c>
       <c r="U37" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="V37" t="n">
-        <v>245.1090151844499</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="W37" t="n">
-        <v>248.3112107889443</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30241,22 +30241,22 @@
         <v>248.3112107889442</v>
       </c>
       <c r="I38" t="n">
+        <v>240.5985821377675</v>
+      </c>
+      <c r="J38" t="n">
         <v>248.3112107889442</v>
       </c>
-      <c r="J38" t="n">
-        <v>179.4056861505998</v>
-      </c>
       <c r="K38" t="n">
-        <v>5.37048276983861</v>
+        <v>5.370482769838588</v>
       </c>
       <c r="L38" t="n">
         <v>248.3112107889442</v>
       </c>
       <c r="M38" t="n">
-        <v>244.6649772971285</v>
+        <v>69.02009515331139</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30265,7 +30265,7 @@
         <v>248.3112107889442</v>
       </c>
       <c r="Q38" t="n">
-        <v>248.3112107889442</v>
+        <v>88.55996792937718</v>
       </c>
       <c r="R38" t="n">
         <v>248.3112107889442</v>
@@ -30274,7 +30274,7 @@
         <v>227.2739512919082</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4191925616721</v>
+        <v>248.3112107889442</v>
       </c>
       <c r="U38" t="n">
         <v>248.3112107889442</v>
@@ -30323,7 +30323,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J39" t="n">
-        <v>51.93601990319847</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,28 +30344,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.141010788491251</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>96.22567139378543</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>191.4847933493538</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>58.98877398904975</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30405,34 +30405,34 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K40" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346797</v>
       </c>
       <c r="L40" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360786</v>
       </c>
       <c r="M40" t="n">
-        <v>24.46691421597136</v>
+        <v>24.46691421597134</v>
       </c>
       <c r="N40" t="n">
-        <v>15.78803834926583</v>
+        <v>15.78803834926581</v>
       </c>
       <c r="O40" t="n">
-        <v>36.8026535858953</v>
+        <v>117.616968053364</v>
       </c>
       <c r="P40" t="n">
-        <v>57.89996696047067</v>
+        <v>57.89996696047066</v>
       </c>
       <c r="Q40" t="n">
         <v>126.8163712014149</v>
       </c>
       <c r="R40" t="n">
-        <v>248.3112107889442</v>
+        <v>203.2148443806685</v>
       </c>
       <c r="S40" t="n">
-        <v>246.5025221041718</v>
+        <v>235.3546681313223</v>
       </c>
       <c r="T40" t="n">
-        <v>248.3112107889442</v>
+        <v>223.7411167026008</v>
       </c>
       <c r="U40" t="n">
         <v>248.3112107889442</v>
@@ -30481,28 +30481,28 @@
         <v>240.5985821377675</v>
       </c>
       <c r="J41" t="n">
+        <v>75.87638612011797</v>
+      </c>
+      <c r="K41" t="n">
         <v>240.5985821377675</v>
       </c>
-      <c r="K41" t="n">
-        <v>201.7724340278368</v>
-      </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="M41" t="n">
         <v>240.5985821377675</v>
       </c>
       <c r="N41" t="n">
+        <v>112.3378078893801</v>
+      </c>
+      <c r="O41" t="n">
         <v>240.5985821377675</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
-        <v>240.5985821377675</v>
+        <v>13.55824001833905</v>
       </c>
       <c r="Q41" t="n">
-        <v>88.55996792937719</v>
+        <v>88.55996792937718</v>
       </c>
       <c r="R41" t="n">
         <v>240.5985821377675</v>
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -30560,7 +30560,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J42" t="n">
-        <v>51.93601990319847</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R42" t="n">
         <v>134.3654897447971</v>
@@ -30590,19 +30590,19 @@
         <v>191.4847933493538</v>
       </c>
       <c r="T42" t="n">
-        <v>214.947921920714</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.5985821377675</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>147.1670181315366</v>
+        <v>202.5091025643906</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30642,25 +30642,25 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K43" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346797</v>
       </c>
       <c r="L43" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360786</v>
       </c>
       <c r="M43" t="n">
-        <v>24.46691421597136</v>
+        <v>24.46691421597134</v>
       </c>
       <c r="N43" t="n">
-        <v>15.78803834926583</v>
+        <v>15.78803834926581</v>
       </c>
       <c r="O43" t="n">
-        <v>141.159629272628</v>
+        <v>36.80265358589529</v>
       </c>
       <c r="P43" t="n">
-        <v>57.89996696047067</v>
+        <v>57.89996696047066</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.8163712014149</v>
+        <v>231.1733468881476</v>
       </c>
       <c r="R43" t="n">
         <v>203.2148443806685</v>
@@ -30718,37 +30718,37 @@
         <v>240.5985821377675</v>
       </c>
       <c r="J44" t="n">
-        <v>75.87638612011799</v>
+        <v>75.87638612011797</v>
       </c>
       <c r="K44" t="n">
         <v>240.5985821377675</v>
       </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
         <v>240.5985821377675</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>240.5985821377675</v>
       </c>
       <c r="O44" t="n">
-        <v>240.5985821377675</v>
+        <v>203.7870805800519</v>
       </c>
       <c r="P44" t="n">
         <v>240.5985821377675</v>
       </c>
       <c r="Q44" t="n">
-        <v>214.4560158370959</v>
+        <v>88.55996792937718</v>
       </c>
       <c r="R44" t="n">
-        <v>240.5985821377675</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S44" t="n">
-        <v>240.5985821377675</v>
+        <v>227.2739512919082</v>
       </c>
       <c r="T44" t="n">
-        <v>240.5985821377675</v>
+        <v>222.4191925616721</v>
       </c>
       <c r="U44" t="n">
         <v>240.5985821377675</v>
@@ -30797,7 +30797,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J45" t="n">
-        <v>51.93601990319847</v>
+        <v>51.93601990319846</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,28 +30818,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.141010788491251</v>
+        <v>6.14101078849124</v>
       </c>
       <c r="R45" t="n">
-        <v>134.3654897447971</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4847933493538</v>
+        <v>76.1837696764902</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V45" t="n">
-        <v>179.2234348660937</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>240.5985821377675</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30879,34 +30879,34 @@
         <v>119.9013618977274</v>
       </c>
       <c r="K46" t="n">
-        <v>66.47413857346798</v>
+        <v>66.47413857346797</v>
       </c>
       <c r="L46" t="n">
-        <v>31.44053041360787</v>
+        <v>31.44053041360786</v>
       </c>
       <c r="M46" t="n">
-        <v>69.33877270399307</v>
+        <v>24.46691421597134</v>
       </c>
       <c r="N46" t="n">
-        <v>15.78803834926583</v>
+        <v>15.78803834926581</v>
       </c>
       <c r="O46" t="n">
-        <v>36.8026535858953</v>
+        <v>36.80265358589529</v>
       </c>
       <c r="P46" t="n">
-        <v>57.89996696047067</v>
+        <v>57.89996696047066</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.8163712014149</v>
+        <v>231.1733468881477</v>
       </c>
       <c r="R46" t="n">
-        <v>240.5985821377675</v>
+        <v>203.2148443806685</v>
       </c>
       <c r="S46" t="n">
-        <v>240.5985821377675</v>
+        <v>235.3546681313223</v>
       </c>
       <c r="T46" t="n">
-        <v>240.5985821377675</v>
+        <v>223.7411167026008</v>
       </c>
       <c r="U46" t="n">
         <v>240.5985821377675</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4173847717455101</v>
+        <v>0.4173847717455099</v>
       </c>
       <c r="H11" t="n">
-        <v>4.274541793638707</v>
+        <v>4.274541793638704</v>
       </c>
       <c r="I11" t="n">
-        <v>16.0912264127188</v>
+        <v>16.09122641271878</v>
       </c>
       <c r="J11" t="n">
-        <v>35.42501077093552</v>
+        <v>35.4250107709355</v>
       </c>
       <c r="K11" t="n">
-        <v>53.09290815892298</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L11" t="n">
-        <v>65.86644736722965</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M11" t="n">
-        <v>73.28911380175886</v>
+        <v>73.28911380175882</v>
       </c>
       <c r="N11" t="n">
-        <v>74.47500828448079</v>
+        <v>74.47500828448075</v>
       </c>
       <c r="O11" t="n">
-        <v>70.32463846043638</v>
+        <v>70.32463846043633</v>
       </c>
       <c r="P11" t="n">
-        <v>60.02045190796908</v>
+        <v>60.02045190796905</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.07285976983299</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R11" t="n">
-        <v>26.21854616815892</v>
+        <v>26.21854616815891</v>
       </c>
       <c r="S11" t="n">
-        <v>9.511155486150821</v>
+        <v>9.511155486150816</v>
       </c>
       <c r="T11" t="n">
-        <v>1.827101838315972</v>
+        <v>1.82710183831597</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0333907817396408</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2233205408447795</v>
+        <v>0.2233205408447793</v>
       </c>
       <c r="H12" t="n">
-        <v>2.156806276053528</v>
+        <v>2.156806276053527</v>
       </c>
       <c r="I12" t="n">
-        <v>7.688887042243506</v>
+        <v>7.688887042243501</v>
       </c>
       <c r="J12" t="n">
-        <v>21.09889372954998</v>
+        <v>21.09889372954997</v>
       </c>
       <c r="K12" t="n">
-        <v>36.06136996615021</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L12" t="n">
-        <v>48.48896216895092</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M12" t="n">
-        <v>56.58433177457416</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N12" t="n">
-        <v>58.08195066471307</v>
+        <v>58.08195066471303</v>
       </c>
       <c r="O12" t="n">
-        <v>53.13363762809979</v>
+        <v>53.13363762809976</v>
       </c>
       <c r="P12" t="n">
-        <v>42.64442854078952</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.50667114362484</v>
+        <v>28.50667114362482</v>
       </c>
       <c r="R12" t="n">
-        <v>13.86546305350307</v>
+        <v>13.86546305350306</v>
       </c>
       <c r="S12" t="n">
-        <v>4.148081098586142</v>
+        <v>4.14808109858614</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9001384957734749</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01469214084505129</v>
+        <v>0.01469214084505128</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1872244396210906</v>
+        <v>0.1872244396210905</v>
       </c>
       <c r="H13" t="n">
-        <v>1.664595472267516</v>
+        <v>1.664595472267515</v>
       </c>
       <c r="I13" t="n">
-        <v>5.630349511514255</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J13" t="n">
-        <v>13.23676788121111</v>
+        <v>13.2367678812111</v>
       </c>
       <c r="K13" t="n">
-        <v>21.75207580325034</v>
+        <v>21.75207580325033</v>
       </c>
       <c r="L13" t="n">
-        <v>27.83516805057561</v>
+        <v>27.83516805057559</v>
       </c>
       <c r="M13" t="n">
-        <v>29.34828193078605</v>
+        <v>29.34828193078603</v>
       </c>
       <c r="N13" t="n">
-        <v>28.65044538310746</v>
+        <v>28.65044538310744</v>
       </c>
       <c r="O13" t="n">
-        <v>26.46332352026107</v>
+        <v>26.46332352026106</v>
       </c>
       <c r="P13" t="n">
-        <v>22.64394495199081</v>
+        <v>22.64394495199079</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.67749375772605</v>
+        <v>15.67749375772604</v>
       </c>
       <c r="R13" t="n">
-        <v>8.41829162150831</v>
+        <v>8.418291621508304</v>
       </c>
       <c r="S13" t="n">
-        <v>3.262811370487551</v>
+        <v>3.262811370487549</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7999589692901143</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01021224216115041</v>
+        <v>0.0102122421611504</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4173847717455097</v>
+        <v>0.4173847717455098</v>
       </c>
       <c r="H14" t="n">
         <v>4.274541793638702</v>
@@ -32005,7 +32005,7 @@
         <v>65.86644736722958</v>
       </c>
       <c r="M14" t="n">
-        <v>73.28911380175877</v>
+        <v>73.28911380175879</v>
       </c>
       <c r="N14" t="n">
         <v>74.47500828448072</v>
@@ -32014,16 +32014,16 @@
         <v>70.3246384604363</v>
       </c>
       <c r="P14" t="n">
-        <v>60.02045190796902</v>
+        <v>60.02045190796903</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.07285976983294</v>
+        <v>45.07285976983295</v>
       </c>
       <c r="R14" t="n">
-        <v>26.21854616815889</v>
+        <v>26.2185461681589</v>
       </c>
       <c r="S14" t="n">
-        <v>9.511155486150811</v>
+        <v>9.511155486150813</v>
       </c>
       <c r="T14" t="n">
         <v>1.82710183831597</v>
@@ -32069,10 +32069,10 @@
         <v>0.2233205408447793</v>
       </c>
       <c r="H15" t="n">
-        <v>2.156806276053526</v>
+        <v>2.156806276053527</v>
       </c>
       <c r="I15" t="n">
-        <v>7.688887042243497</v>
+        <v>7.688887042243498</v>
       </c>
       <c r="J15" t="n">
         <v>21.09889372954996</v>
@@ -32084,28 +32084,28 @@
         <v>48.48896216895087</v>
       </c>
       <c r="M15" t="n">
-        <v>56.5843317745741</v>
+        <v>56.58433177457411</v>
       </c>
       <c r="N15" t="n">
         <v>58.08195066471301</v>
       </c>
       <c r="O15" t="n">
-        <v>53.13363762809973</v>
+        <v>53.13363762809974</v>
       </c>
       <c r="P15" t="n">
-        <v>42.64442854078947</v>
+        <v>42.64442854078948</v>
       </c>
       <c r="Q15" t="n">
         <v>28.50667114362481</v>
       </c>
       <c r="R15" t="n">
-        <v>13.86546305350305</v>
+        <v>13.86546305350306</v>
       </c>
       <c r="S15" t="n">
-        <v>4.148081098586138</v>
+        <v>4.148081098586139</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9001384957734739</v>
+        <v>0.900138495773474</v>
       </c>
       <c r="U15" t="n">
         <v>0.01469214084505127</v>
@@ -32166,13 +32166,13 @@
         <v>29.34828193078602</v>
       </c>
       <c r="N16" t="n">
-        <v>28.65044538310743</v>
+        <v>28.65044538310744</v>
       </c>
       <c r="O16" t="n">
         <v>26.46332352026105</v>
       </c>
       <c r="P16" t="n">
-        <v>22.64394495199078</v>
+        <v>22.64394495199079</v>
       </c>
       <c r="Q16" t="n">
         <v>15.67749375772604</v>
@@ -32181,10 +32181,10 @@
         <v>8.418291621508301</v>
       </c>
       <c r="S16" t="n">
-        <v>3.262811370487547</v>
+        <v>3.262811370487548</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7999589692901135</v>
+        <v>0.7999589692901136</v>
       </c>
       <c r="U16" t="n">
         <v>0.0102122421611504</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4173847717455097</v>
+        <v>0.4173847717455099</v>
       </c>
       <c r="H17" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638704</v>
       </c>
       <c r="I17" t="n">
         <v>16.09122641271878</v>
       </c>
       <c r="J17" t="n">
-        <v>35.42501077093549</v>
+        <v>35.4250107709355</v>
       </c>
       <c r="K17" t="n">
-        <v>53.09290815892292</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L17" t="n">
-        <v>65.86644736722958</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M17" t="n">
-        <v>73.28911380175877</v>
+        <v>73.28911380175882</v>
       </c>
       <c r="N17" t="n">
-        <v>74.47500828448072</v>
+        <v>74.47500828448075</v>
       </c>
       <c r="O17" t="n">
-        <v>70.3246384604363</v>
+        <v>70.32463846043633</v>
       </c>
       <c r="P17" t="n">
-        <v>60.02045190796902</v>
+        <v>60.02045190796905</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.07285976983294</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R17" t="n">
-        <v>26.21854616815889</v>
+        <v>26.21854616815891</v>
       </c>
       <c r="S17" t="n">
-        <v>9.511155486150811</v>
+        <v>9.511155486150816</v>
       </c>
       <c r="T17" t="n">
         <v>1.82710183831597</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,46 +32306,46 @@
         <v>0.2233205408447793</v>
       </c>
       <c r="H18" t="n">
-        <v>2.156806276053526</v>
+        <v>2.156806276053527</v>
       </c>
       <c r="I18" t="n">
-        <v>7.688887042243497</v>
+        <v>7.688887042243501</v>
       </c>
       <c r="J18" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954997</v>
       </c>
       <c r="K18" t="n">
-        <v>36.06136996615017</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L18" t="n">
-        <v>48.48896216895087</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M18" t="n">
-        <v>56.5843317745741</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N18" t="n">
-        <v>58.08195066471301</v>
+        <v>58.08195066471303</v>
       </c>
       <c r="O18" t="n">
-        <v>53.13363762809973</v>
+        <v>53.13363762809976</v>
       </c>
       <c r="P18" t="n">
-        <v>42.64442854078947</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.50667114362481</v>
+        <v>28.50667114362482</v>
       </c>
       <c r="R18" t="n">
-        <v>13.86546305350305</v>
+        <v>13.86546305350306</v>
       </c>
       <c r="S18" t="n">
-        <v>4.148081098586138</v>
+        <v>4.14808109858614</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9001384957734739</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505128</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210905</v>
       </c>
       <c r="H19" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267515</v>
       </c>
       <c r="I19" t="n">
-        <v>5.630349511514249</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J19" t="n">
-        <v>13.23676788121109</v>
+        <v>13.2367678812111</v>
       </c>
       <c r="K19" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325033</v>
       </c>
       <c r="L19" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057559</v>
       </c>
       <c r="M19" t="n">
-        <v>29.34828193078602</v>
+        <v>29.34828193078603</v>
       </c>
       <c r="N19" t="n">
-        <v>28.65044538310743</v>
+        <v>28.65044538310744</v>
       </c>
       <c r="O19" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026106</v>
       </c>
       <c r="P19" t="n">
-        <v>22.64394495199078</v>
+        <v>22.64394495199079</v>
       </c>
       <c r="Q19" t="n">
         <v>15.67749375772604</v>
       </c>
       <c r="R19" t="n">
-        <v>8.418291621508301</v>
+        <v>8.418291621508304</v>
       </c>
       <c r="S19" t="n">
-        <v>3.262811370487547</v>
+        <v>3.262811370487549</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7999589692901135</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U19" t="n">
         <v>0.0102122421611504</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4173847717455097</v>
+        <v>0.4173847717455099</v>
       </c>
       <c r="H20" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638704</v>
       </c>
       <c r="I20" t="n">
         <v>16.09122641271878</v>
       </c>
       <c r="J20" t="n">
-        <v>35.42501077093549</v>
+        <v>35.4250107709355</v>
       </c>
       <c r="K20" t="n">
-        <v>53.09290815892292</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L20" t="n">
-        <v>65.86644736722958</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M20" t="n">
-        <v>73.28911380175877</v>
+        <v>73.28911380175882</v>
       </c>
       <c r="N20" t="n">
-        <v>74.47500828448072</v>
+        <v>74.47500828448075</v>
       </c>
       <c r="O20" t="n">
-        <v>70.3246384604363</v>
+        <v>70.32463846043633</v>
       </c>
       <c r="P20" t="n">
-        <v>60.02045190796902</v>
+        <v>60.02045190796905</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.07285976983294</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R20" t="n">
-        <v>26.21854616815889</v>
+        <v>26.21854616815891</v>
       </c>
       <c r="S20" t="n">
-        <v>9.511155486150811</v>
+        <v>9.511155486150816</v>
       </c>
       <c r="T20" t="n">
         <v>1.82710183831597</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,46 +32543,46 @@
         <v>0.2233205408447793</v>
       </c>
       <c r="H21" t="n">
-        <v>2.156806276053526</v>
+        <v>2.156806276053527</v>
       </c>
       <c r="I21" t="n">
-        <v>7.688887042243497</v>
+        <v>7.688887042243501</v>
       </c>
       <c r="J21" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954997</v>
       </c>
       <c r="K21" t="n">
-        <v>36.06136996615017</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L21" t="n">
-        <v>48.48896216895087</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M21" t="n">
-        <v>56.5843317745741</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N21" t="n">
-        <v>58.08195066471301</v>
+        <v>58.08195066471303</v>
       </c>
       <c r="O21" t="n">
-        <v>53.13363762809973</v>
+        <v>53.13363762809976</v>
       </c>
       <c r="P21" t="n">
-        <v>42.64442854078947</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.50667114362481</v>
+        <v>28.50667114362482</v>
       </c>
       <c r="R21" t="n">
-        <v>13.86546305350305</v>
+        <v>13.86546305350306</v>
       </c>
       <c r="S21" t="n">
-        <v>4.148081098586138</v>
+        <v>4.14808109858614</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9001384957734739</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505128</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210905</v>
       </c>
       <c r="H22" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267515</v>
       </c>
       <c r="I22" t="n">
-        <v>5.630349511514249</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J22" t="n">
-        <v>13.23676788121109</v>
+        <v>13.2367678812111</v>
       </c>
       <c r="K22" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325033</v>
       </c>
       <c r="L22" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057559</v>
       </c>
       <c r="M22" t="n">
-        <v>29.34828193078602</v>
+        <v>29.34828193078603</v>
       </c>
       <c r="N22" t="n">
-        <v>28.65044538310743</v>
+        <v>28.65044538310744</v>
       </c>
       <c r="O22" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026106</v>
       </c>
       <c r="P22" t="n">
-        <v>22.64394495199078</v>
+        <v>22.64394495199079</v>
       </c>
       <c r="Q22" t="n">
         <v>15.67749375772604</v>
       </c>
       <c r="R22" t="n">
-        <v>8.418291621508301</v>
+        <v>8.418291621508304</v>
       </c>
       <c r="S22" t="n">
-        <v>3.262811370487547</v>
+        <v>3.262811370487549</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7999589692901135</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U22" t="n">
         <v>0.0102122421611504</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4173847717455097</v>
+        <v>0.4173847717455099</v>
       </c>
       <c r="H23" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638704</v>
       </c>
       <c r="I23" t="n">
         <v>16.09122641271878</v>
       </c>
       <c r="J23" t="n">
-        <v>35.42501077093549</v>
+        <v>35.4250107709355</v>
       </c>
       <c r="K23" t="n">
-        <v>53.09290815892292</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L23" t="n">
-        <v>65.86644736722958</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M23" t="n">
-        <v>73.28911380175877</v>
+        <v>73.28911380175882</v>
       </c>
       <c r="N23" t="n">
-        <v>74.47500828448072</v>
+        <v>74.47500828448075</v>
       </c>
       <c r="O23" t="n">
-        <v>70.3246384604363</v>
+        <v>70.32463846043633</v>
       </c>
       <c r="P23" t="n">
-        <v>60.02045190796902</v>
+        <v>60.02045190796905</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.07285976983294</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R23" t="n">
-        <v>26.21854616815889</v>
+        <v>26.21854616815891</v>
       </c>
       <c r="S23" t="n">
-        <v>9.511155486150811</v>
+        <v>9.511155486150816</v>
       </c>
       <c r="T23" t="n">
         <v>1.82710183831597</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,46 +32780,46 @@
         <v>0.2233205408447793</v>
       </c>
       <c r="H24" t="n">
-        <v>2.156806276053526</v>
+        <v>2.156806276053527</v>
       </c>
       <c r="I24" t="n">
-        <v>7.688887042243497</v>
+        <v>7.688887042243501</v>
       </c>
       <c r="J24" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954997</v>
       </c>
       <c r="K24" t="n">
-        <v>36.06136996615017</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L24" t="n">
-        <v>48.48896216895087</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M24" t="n">
-        <v>56.5843317745741</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N24" t="n">
-        <v>58.08195066471301</v>
+        <v>58.08195066471303</v>
       </c>
       <c r="O24" t="n">
-        <v>53.13363762809973</v>
+        <v>53.13363762809976</v>
       </c>
       <c r="P24" t="n">
-        <v>42.64442854078947</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.50667114362481</v>
+        <v>28.50667114362482</v>
       </c>
       <c r="R24" t="n">
-        <v>13.86546305350305</v>
+        <v>13.86546305350306</v>
       </c>
       <c r="S24" t="n">
-        <v>4.148081098586138</v>
+        <v>4.14808109858614</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9001384957734739</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505128</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,46 +32856,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210905</v>
       </c>
       <c r="H25" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267515</v>
       </c>
       <c r="I25" t="n">
-        <v>5.630349511514249</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J25" t="n">
-        <v>13.23676788121109</v>
+        <v>13.2367678812111</v>
       </c>
       <c r="K25" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325033</v>
       </c>
       <c r="L25" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057559</v>
       </c>
       <c r="M25" t="n">
-        <v>29.34828193078602</v>
+        <v>29.34828193078603</v>
       </c>
       <c r="N25" t="n">
-        <v>28.65044538310743</v>
+        <v>28.65044538310744</v>
       </c>
       <c r="O25" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026106</v>
       </c>
       <c r="P25" t="n">
-        <v>22.64394495199078</v>
+        <v>22.64394495199079</v>
       </c>
       <c r="Q25" t="n">
         <v>15.67749375772604</v>
       </c>
       <c r="R25" t="n">
-        <v>8.418291621508301</v>
+        <v>8.418291621508304</v>
       </c>
       <c r="S25" t="n">
-        <v>3.262811370487547</v>
+        <v>3.262811370487549</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7999589692901135</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U25" t="n">
         <v>0.0102122421611504</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4173847717455097</v>
+        <v>0.4173847717455099</v>
       </c>
       <c r="H26" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638704</v>
       </c>
       <c r="I26" t="n">
         <v>16.09122641271878</v>
       </c>
       <c r="J26" t="n">
-        <v>35.42501077093549</v>
+        <v>35.4250107709355</v>
       </c>
       <c r="K26" t="n">
-        <v>53.09290815892292</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L26" t="n">
-        <v>65.86644736722958</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M26" t="n">
-        <v>73.28911380175877</v>
+        <v>73.28911380175882</v>
       </c>
       <c r="N26" t="n">
-        <v>74.47500828448072</v>
+        <v>74.47500828448075</v>
       </c>
       <c r="O26" t="n">
-        <v>70.3246384604363</v>
+        <v>70.32463846043633</v>
       </c>
       <c r="P26" t="n">
-        <v>60.02045190796902</v>
+        <v>60.02045190796905</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.07285976983294</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R26" t="n">
-        <v>26.21854616815889</v>
+        <v>26.21854616815891</v>
       </c>
       <c r="S26" t="n">
-        <v>9.511155486150811</v>
+        <v>9.511155486150816</v>
       </c>
       <c r="T26" t="n">
         <v>1.82710183831597</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,46 +33017,46 @@
         <v>0.2233205408447793</v>
       </c>
       <c r="H27" t="n">
-        <v>2.156806276053526</v>
+        <v>2.156806276053527</v>
       </c>
       <c r="I27" t="n">
-        <v>7.688887042243497</v>
+        <v>7.688887042243501</v>
       </c>
       <c r="J27" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954997</v>
       </c>
       <c r="K27" t="n">
-        <v>36.06136996615017</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L27" t="n">
-        <v>48.48896216895087</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M27" t="n">
-        <v>56.5843317745741</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N27" t="n">
-        <v>58.08195066471301</v>
+        <v>58.08195066471303</v>
       </c>
       <c r="O27" t="n">
-        <v>53.13363762809973</v>
+        <v>53.13363762809976</v>
       </c>
       <c r="P27" t="n">
-        <v>42.64442854078947</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.50667114362481</v>
+        <v>28.50667114362482</v>
       </c>
       <c r="R27" t="n">
-        <v>13.86546305350305</v>
+        <v>13.86546305350306</v>
       </c>
       <c r="S27" t="n">
-        <v>4.148081098586138</v>
+        <v>4.14808109858614</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9001384957734739</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505128</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210905</v>
       </c>
       <c r="H28" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267515</v>
       </c>
       <c r="I28" t="n">
-        <v>5.630349511514249</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J28" t="n">
-        <v>13.23676788121109</v>
+        <v>13.2367678812111</v>
       </c>
       <c r="K28" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325033</v>
       </c>
       <c r="L28" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057559</v>
       </c>
       <c r="M28" t="n">
-        <v>29.34828193078602</v>
+        <v>29.34828193078603</v>
       </c>
       <c r="N28" t="n">
-        <v>28.65044538310743</v>
+        <v>28.65044538310744</v>
       </c>
       <c r="O28" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026106</v>
       </c>
       <c r="P28" t="n">
-        <v>22.64394495199078</v>
+        <v>22.64394495199079</v>
       </c>
       <c r="Q28" t="n">
         <v>15.67749375772604</v>
       </c>
       <c r="R28" t="n">
-        <v>8.418291621508301</v>
+        <v>8.418291621508304</v>
       </c>
       <c r="S28" t="n">
-        <v>3.262811370487547</v>
+        <v>3.262811370487549</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7999589692901135</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U28" t="n">
         <v>0.0102122421611504</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4173847717455097</v>
+        <v>0.4173847717455099</v>
       </c>
       <c r="H29" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638704</v>
       </c>
       <c r="I29" t="n">
         <v>16.09122641271878</v>
       </c>
       <c r="J29" t="n">
-        <v>35.42501077093549</v>
+        <v>35.4250107709355</v>
       </c>
       <c r="K29" t="n">
-        <v>53.09290815892292</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L29" t="n">
-        <v>65.86644736722958</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M29" t="n">
-        <v>73.28911380175877</v>
+        <v>73.28911380175882</v>
       </c>
       <c r="N29" t="n">
-        <v>74.47500828448072</v>
+        <v>74.47500828448075</v>
       </c>
       <c r="O29" t="n">
-        <v>70.3246384604363</v>
+        <v>70.32463846043633</v>
       </c>
       <c r="P29" t="n">
-        <v>60.02045190796902</v>
+        <v>60.02045190796905</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.07285976983294</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R29" t="n">
-        <v>26.21854616815889</v>
+        <v>26.21854616815891</v>
       </c>
       <c r="S29" t="n">
-        <v>9.511155486150811</v>
+        <v>9.511155486150816</v>
       </c>
       <c r="T29" t="n">
         <v>1.82710183831597</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,46 +33254,46 @@
         <v>0.2233205408447793</v>
       </c>
       <c r="H30" t="n">
-        <v>2.156806276053526</v>
+        <v>2.156806276053527</v>
       </c>
       <c r="I30" t="n">
-        <v>7.688887042243497</v>
+        <v>7.688887042243501</v>
       </c>
       <c r="J30" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954997</v>
       </c>
       <c r="K30" t="n">
-        <v>36.06136996615017</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L30" t="n">
-        <v>48.48896216895087</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M30" t="n">
-        <v>56.5843317745741</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N30" t="n">
-        <v>58.08195066471301</v>
+        <v>58.08195066471303</v>
       </c>
       <c r="O30" t="n">
-        <v>53.13363762809973</v>
+        <v>53.13363762809976</v>
       </c>
       <c r="P30" t="n">
-        <v>42.64442854078947</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.50667114362481</v>
+        <v>28.50667114362482</v>
       </c>
       <c r="R30" t="n">
-        <v>13.86546305350305</v>
+        <v>13.86546305350306</v>
       </c>
       <c r="S30" t="n">
-        <v>4.148081098586138</v>
+        <v>4.14808109858614</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9001384957734739</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505128</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210905</v>
       </c>
       <c r="H31" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267515</v>
       </c>
       <c r="I31" t="n">
-        <v>5.630349511514249</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J31" t="n">
-        <v>13.23676788121109</v>
+        <v>13.2367678812111</v>
       </c>
       <c r="K31" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325033</v>
       </c>
       <c r="L31" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057559</v>
       </c>
       <c r="M31" t="n">
-        <v>29.34828193078602</v>
+        <v>29.34828193078603</v>
       </c>
       <c r="N31" t="n">
-        <v>28.65044538310743</v>
+        <v>28.65044538310744</v>
       </c>
       <c r="O31" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026106</v>
       </c>
       <c r="P31" t="n">
-        <v>22.64394495199078</v>
+        <v>22.64394495199079</v>
       </c>
       <c r="Q31" t="n">
         <v>15.67749375772604</v>
       </c>
       <c r="R31" t="n">
-        <v>8.418291621508301</v>
+        <v>8.418291621508304</v>
       </c>
       <c r="S31" t="n">
-        <v>3.262811370487547</v>
+        <v>3.262811370487549</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7999589692901135</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U31" t="n">
         <v>0.0102122421611504</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4173847717455097</v>
+        <v>0.4173847717455099</v>
       </c>
       <c r="H32" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638704</v>
       </c>
       <c r="I32" t="n">
         <v>16.09122641271878</v>
       </c>
       <c r="J32" t="n">
-        <v>35.42501077093549</v>
+        <v>35.4250107709355</v>
       </c>
       <c r="K32" t="n">
-        <v>53.09290815892292</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L32" t="n">
-        <v>65.86644736722958</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M32" t="n">
-        <v>73.28911380175877</v>
+        <v>73.28911380175882</v>
       </c>
       <c r="N32" t="n">
-        <v>74.47500828448072</v>
+        <v>74.47500828448075</v>
       </c>
       <c r="O32" t="n">
-        <v>70.3246384604363</v>
+        <v>70.32463846043633</v>
       </c>
       <c r="P32" t="n">
-        <v>60.02045190796902</v>
+        <v>60.02045190796905</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.07285976983294</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R32" t="n">
-        <v>26.21854616815889</v>
+        <v>26.21854616815891</v>
       </c>
       <c r="S32" t="n">
-        <v>9.511155486150811</v>
+        <v>9.511155486150816</v>
       </c>
       <c r="T32" t="n">
         <v>1.82710183831597</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,46 +33491,46 @@
         <v>0.2233205408447793</v>
       </c>
       <c r="H33" t="n">
-        <v>2.156806276053526</v>
+        <v>2.156806276053527</v>
       </c>
       <c r="I33" t="n">
-        <v>7.688887042243497</v>
+        <v>7.688887042243501</v>
       </c>
       <c r="J33" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954997</v>
       </c>
       <c r="K33" t="n">
-        <v>36.06136996615017</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L33" t="n">
-        <v>48.48896216895087</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M33" t="n">
-        <v>56.5843317745741</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N33" t="n">
-        <v>58.08195066471301</v>
+        <v>58.08195066471303</v>
       </c>
       <c r="O33" t="n">
-        <v>53.13363762809973</v>
+        <v>53.13363762809976</v>
       </c>
       <c r="P33" t="n">
-        <v>42.64442854078947</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.50667114362481</v>
+        <v>28.50667114362482</v>
       </c>
       <c r="R33" t="n">
-        <v>13.86546305350305</v>
+        <v>13.86546305350306</v>
       </c>
       <c r="S33" t="n">
-        <v>4.148081098586138</v>
+        <v>4.14808109858614</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9001384957734739</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505128</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,46 +33567,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210905</v>
       </c>
       <c r="H34" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267515</v>
       </c>
       <c r="I34" t="n">
-        <v>5.630349511514249</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J34" t="n">
-        <v>13.23676788121109</v>
+        <v>13.2367678812111</v>
       </c>
       <c r="K34" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325033</v>
       </c>
       <c r="L34" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057559</v>
       </c>
       <c r="M34" t="n">
-        <v>29.34828193078602</v>
+        <v>29.34828193078603</v>
       </c>
       <c r="N34" t="n">
-        <v>28.65044538310743</v>
+        <v>28.65044538310744</v>
       </c>
       <c r="O34" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026106</v>
       </c>
       <c r="P34" t="n">
-        <v>22.64394495199078</v>
+        <v>22.64394495199079</v>
       </c>
       <c r="Q34" t="n">
         <v>15.67749375772604</v>
       </c>
       <c r="R34" t="n">
-        <v>8.418291621508301</v>
+        <v>8.418291621508304</v>
       </c>
       <c r="S34" t="n">
-        <v>3.262811370487547</v>
+        <v>3.262811370487549</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7999589692901135</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U34" t="n">
         <v>0.0102122421611504</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4173847717455097</v>
+        <v>0.4173847717455099</v>
       </c>
       <c r="H35" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638704</v>
       </c>
       <c r="I35" t="n">
         <v>16.09122641271878</v>
       </c>
       <c r="J35" t="n">
-        <v>35.42501077093549</v>
+        <v>35.4250107709355</v>
       </c>
       <c r="K35" t="n">
-        <v>53.09290815892292</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L35" t="n">
-        <v>65.86644736722958</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M35" t="n">
-        <v>73.28911380175877</v>
+        <v>73.28911380175882</v>
       </c>
       <c r="N35" t="n">
-        <v>74.47500828448072</v>
+        <v>74.47500828448075</v>
       </c>
       <c r="O35" t="n">
-        <v>70.3246384604363</v>
+        <v>70.32463846043633</v>
       </c>
       <c r="P35" t="n">
-        <v>60.02045190796902</v>
+        <v>60.02045190796905</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.07285976983294</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R35" t="n">
-        <v>26.21854616815889</v>
+        <v>26.21854616815891</v>
       </c>
       <c r="S35" t="n">
-        <v>9.511155486150811</v>
+        <v>9.511155486150816</v>
       </c>
       <c r="T35" t="n">
         <v>1.82710183831597</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,46 +33728,46 @@
         <v>0.2233205408447793</v>
       </c>
       <c r="H36" t="n">
-        <v>2.156806276053526</v>
+        <v>2.156806276053527</v>
       </c>
       <c r="I36" t="n">
-        <v>7.688887042243497</v>
+        <v>7.688887042243501</v>
       </c>
       <c r="J36" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954997</v>
       </c>
       <c r="K36" t="n">
-        <v>36.06136996615017</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L36" t="n">
-        <v>48.48896216895087</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M36" t="n">
-        <v>56.5843317745741</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N36" t="n">
-        <v>58.08195066471301</v>
+        <v>58.08195066471303</v>
       </c>
       <c r="O36" t="n">
-        <v>53.13363762809973</v>
+        <v>53.13363762809976</v>
       </c>
       <c r="P36" t="n">
-        <v>42.64442854078947</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.50667114362481</v>
+        <v>28.50667114362482</v>
       </c>
       <c r="R36" t="n">
-        <v>13.86546305350305</v>
+        <v>13.86546305350306</v>
       </c>
       <c r="S36" t="n">
-        <v>4.148081098586138</v>
+        <v>4.14808109858614</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9001384957734739</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505128</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,46 +33804,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210905</v>
       </c>
       <c r="H37" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267515</v>
       </c>
       <c r="I37" t="n">
-        <v>5.630349511514249</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J37" t="n">
-        <v>13.23676788121109</v>
+        <v>13.2367678812111</v>
       </c>
       <c r="K37" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325033</v>
       </c>
       <c r="L37" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057559</v>
       </c>
       <c r="M37" t="n">
-        <v>29.34828193078602</v>
+        <v>29.34828193078603</v>
       </c>
       <c r="N37" t="n">
-        <v>28.65044538310743</v>
+        <v>28.65044538310744</v>
       </c>
       <c r="O37" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026106</v>
       </c>
       <c r="P37" t="n">
-        <v>22.64394495199078</v>
+        <v>22.64394495199079</v>
       </c>
       <c r="Q37" t="n">
         <v>15.67749375772604</v>
       </c>
       <c r="R37" t="n">
-        <v>8.418291621508301</v>
+        <v>8.418291621508304</v>
       </c>
       <c r="S37" t="n">
-        <v>3.262811370487547</v>
+        <v>3.262811370487549</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7999589692901135</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U37" t="n">
         <v>0.0102122421611504</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4173847717455097</v>
+        <v>0.4173847717455099</v>
       </c>
       <c r="H38" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638704</v>
       </c>
       <c r="I38" t="n">
         <v>16.09122641271878</v>
       </c>
       <c r="J38" t="n">
-        <v>35.42501077093549</v>
+        <v>35.4250107709355</v>
       </c>
       <c r="K38" t="n">
-        <v>53.09290815892292</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L38" t="n">
-        <v>65.86644736722958</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M38" t="n">
-        <v>73.28911380175877</v>
+        <v>73.28911380175882</v>
       </c>
       <c r="N38" t="n">
-        <v>74.47500828448072</v>
+        <v>74.47500828448075</v>
       </c>
       <c r="O38" t="n">
-        <v>70.3246384604363</v>
+        <v>70.32463846043633</v>
       </c>
       <c r="P38" t="n">
-        <v>60.02045190796902</v>
+        <v>60.02045190796905</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.07285976983294</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R38" t="n">
-        <v>26.21854616815889</v>
+        <v>26.21854616815891</v>
       </c>
       <c r="S38" t="n">
-        <v>9.511155486150811</v>
+        <v>9.511155486150816</v>
       </c>
       <c r="T38" t="n">
         <v>1.82710183831597</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,46 +33965,46 @@
         <v>0.2233205408447793</v>
       </c>
       <c r="H39" t="n">
-        <v>2.156806276053526</v>
+        <v>2.156806276053527</v>
       </c>
       <c r="I39" t="n">
-        <v>7.688887042243497</v>
+        <v>7.688887042243501</v>
       </c>
       <c r="J39" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954997</v>
       </c>
       <c r="K39" t="n">
-        <v>36.06136996615017</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L39" t="n">
-        <v>48.48896216895087</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M39" t="n">
-        <v>56.5843317745741</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N39" t="n">
-        <v>58.08195066471301</v>
+        <v>58.08195066471303</v>
       </c>
       <c r="O39" t="n">
-        <v>53.13363762809973</v>
+        <v>53.13363762809976</v>
       </c>
       <c r="P39" t="n">
-        <v>42.64442854078947</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.50667114362481</v>
+        <v>28.50667114362482</v>
       </c>
       <c r="R39" t="n">
-        <v>13.86546305350305</v>
+        <v>13.86546305350306</v>
       </c>
       <c r="S39" t="n">
-        <v>4.148081098586138</v>
+        <v>4.14808109858614</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9001384957734739</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505128</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,46 +34041,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210905</v>
       </c>
       <c r="H40" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267515</v>
       </c>
       <c r="I40" t="n">
-        <v>5.630349511514249</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J40" t="n">
-        <v>13.23676788121109</v>
+        <v>13.2367678812111</v>
       </c>
       <c r="K40" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325033</v>
       </c>
       <c r="L40" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057559</v>
       </c>
       <c r="M40" t="n">
-        <v>29.34828193078602</v>
+        <v>29.34828193078603</v>
       </c>
       <c r="N40" t="n">
-        <v>28.65044538310743</v>
+        <v>28.65044538310744</v>
       </c>
       <c r="O40" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026106</v>
       </c>
       <c r="P40" t="n">
-        <v>22.64394495199078</v>
+        <v>22.64394495199079</v>
       </c>
       <c r="Q40" t="n">
         <v>15.67749375772604</v>
       </c>
       <c r="R40" t="n">
-        <v>8.418291621508301</v>
+        <v>8.418291621508304</v>
       </c>
       <c r="S40" t="n">
-        <v>3.262811370487547</v>
+        <v>3.262811370487549</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7999589692901135</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U40" t="n">
         <v>0.0102122421611504</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4173847717455097</v>
+        <v>0.4173847717455099</v>
       </c>
       <c r="H41" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638704</v>
       </c>
       <c r="I41" t="n">
         <v>16.09122641271878</v>
       </c>
       <c r="J41" t="n">
-        <v>35.42501077093549</v>
+        <v>35.4250107709355</v>
       </c>
       <c r="K41" t="n">
-        <v>53.09290815892292</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L41" t="n">
-        <v>65.86644736722958</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M41" t="n">
-        <v>73.28911380175877</v>
+        <v>73.28911380175882</v>
       </c>
       <c r="N41" t="n">
-        <v>74.47500828448072</v>
+        <v>74.47500828448075</v>
       </c>
       <c r="O41" t="n">
-        <v>70.3246384604363</v>
+        <v>70.32463846043633</v>
       </c>
       <c r="P41" t="n">
-        <v>60.02045190796902</v>
+        <v>60.02045190796905</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.07285976983294</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R41" t="n">
-        <v>26.21854616815889</v>
+        <v>26.21854616815891</v>
       </c>
       <c r="S41" t="n">
-        <v>9.511155486150811</v>
+        <v>9.511155486150816</v>
       </c>
       <c r="T41" t="n">
         <v>1.82710183831597</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,46 +34202,46 @@
         <v>0.2233205408447793</v>
       </c>
       <c r="H42" t="n">
-        <v>2.156806276053526</v>
+        <v>2.156806276053527</v>
       </c>
       <c r="I42" t="n">
-        <v>7.688887042243497</v>
+        <v>7.688887042243501</v>
       </c>
       <c r="J42" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954997</v>
       </c>
       <c r="K42" t="n">
-        <v>36.06136996615017</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L42" t="n">
-        <v>48.48896216895087</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M42" t="n">
-        <v>56.5843317745741</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N42" t="n">
-        <v>58.08195066471301</v>
+        <v>58.08195066471303</v>
       </c>
       <c r="O42" t="n">
-        <v>53.13363762809973</v>
+        <v>53.13363762809976</v>
       </c>
       <c r="P42" t="n">
-        <v>42.64442854078947</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.50667114362481</v>
+        <v>28.50667114362482</v>
       </c>
       <c r="R42" t="n">
-        <v>13.86546305350305</v>
+        <v>13.86546305350306</v>
       </c>
       <c r="S42" t="n">
-        <v>4.148081098586138</v>
+        <v>4.14808109858614</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9001384957734739</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505128</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,46 +34278,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210905</v>
       </c>
       <c r="H43" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267515</v>
       </c>
       <c r="I43" t="n">
-        <v>5.630349511514249</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J43" t="n">
-        <v>13.23676788121109</v>
+        <v>13.2367678812111</v>
       </c>
       <c r="K43" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325033</v>
       </c>
       <c r="L43" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057559</v>
       </c>
       <c r="M43" t="n">
-        <v>29.34828193078602</v>
+        <v>29.34828193078603</v>
       </c>
       <c r="N43" t="n">
-        <v>28.65044538310743</v>
+        <v>28.65044538310744</v>
       </c>
       <c r="O43" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026106</v>
       </c>
       <c r="P43" t="n">
-        <v>22.64394495199078</v>
+        <v>22.64394495199079</v>
       </c>
       <c r="Q43" t="n">
         <v>15.67749375772604</v>
       </c>
       <c r="R43" t="n">
-        <v>8.418291621508301</v>
+        <v>8.418291621508304</v>
       </c>
       <c r="S43" t="n">
-        <v>3.262811370487547</v>
+        <v>3.262811370487549</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7999589692901135</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U43" t="n">
         <v>0.0102122421611504</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4173847717455097</v>
+        <v>0.4173847717455099</v>
       </c>
       <c r="H44" t="n">
-        <v>4.274541793638702</v>
+        <v>4.274541793638704</v>
       </c>
       <c r="I44" t="n">
         <v>16.09122641271878</v>
       </c>
       <c r="J44" t="n">
-        <v>35.42501077093549</v>
+        <v>35.4250107709355</v>
       </c>
       <c r="K44" t="n">
-        <v>53.09290815892292</v>
+        <v>53.09290815892294</v>
       </c>
       <c r="L44" t="n">
-        <v>65.86644736722958</v>
+        <v>65.8664473672296</v>
       </c>
       <c r="M44" t="n">
-        <v>73.28911380175877</v>
+        <v>73.28911380175882</v>
       </c>
       <c r="N44" t="n">
-        <v>74.47500828448072</v>
+        <v>74.47500828448075</v>
       </c>
       <c r="O44" t="n">
-        <v>70.3246384604363</v>
+        <v>70.32463846043633</v>
       </c>
       <c r="P44" t="n">
-        <v>60.02045190796902</v>
+        <v>60.02045190796905</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.07285976983294</v>
+        <v>45.07285976983296</v>
       </c>
       <c r="R44" t="n">
-        <v>26.21854616815889</v>
+        <v>26.21854616815891</v>
       </c>
       <c r="S44" t="n">
-        <v>9.511155486150811</v>
+        <v>9.511155486150816</v>
       </c>
       <c r="T44" t="n">
         <v>1.82710183831597</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03339078173964077</v>
+        <v>0.03339078173964078</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,46 +34439,46 @@
         <v>0.2233205408447793</v>
       </c>
       <c r="H45" t="n">
-        <v>2.156806276053526</v>
+        <v>2.156806276053527</v>
       </c>
       <c r="I45" t="n">
-        <v>7.688887042243497</v>
+        <v>7.688887042243501</v>
       </c>
       <c r="J45" t="n">
-        <v>21.09889372954996</v>
+        <v>21.09889372954997</v>
       </c>
       <c r="K45" t="n">
-        <v>36.06136996615017</v>
+        <v>36.06136996615018</v>
       </c>
       <c r="L45" t="n">
-        <v>48.48896216895087</v>
+        <v>48.48896216895088</v>
       </c>
       <c r="M45" t="n">
-        <v>56.5843317745741</v>
+        <v>56.58433177457412</v>
       </c>
       <c r="N45" t="n">
-        <v>58.08195066471301</v>
+        <v>58.08195066471303</v>
       </c>
       <c r="O45" t="n">
-        <v>53.13363762809973</v>
+        <v>53.13363762809976</v>
       </c>
       <c r="P45" t="n">
-        <v>42.64442854078947</v>
+        <v>42.64442854078949</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.50667114362481</v>
+        <v>28.50667114362482</v>
       </c>
       <c r="R45" t="n">
-        <v>13.86546305350305</v>
+        <v>13.86546305350306</v>
       </c>
       <c r="S45" t="n">
-        <v>4.148081098586138</v>
+        <v>4.14808109858614</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9001384957734739</v>
+        <v>0.9001384957734743</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01469214084505127</v>
+        <v>0.01469214084505128</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,46 +34515,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1872244396210904</v>
+        <v>0.1872244396210905</v>
       </c>
       <c r="H46" t="n">
-        <v>1.664595472267514</v>
+        <v>1.664595472267515</v>
       </c>
       <c r="I46" t="n">
-        <v>5.630349511514249</v>
+        <v>5.63034951151425</v>
       </c>
       <c r="J46" t="n">
-        <v>13.23676788121109</v>
+        <v>13.2367678812111</v>
       </c>
       <c r="K46" t="n">
-        <v>21.75207580325032</v>
+        <v>21.75207580325033</v>
       </c>
       <c r="L46" t="n">
-        <v>27.83516805057558</v>
+        <v>27.83516805057559</v>
       </c>
       <c r="M46" t="n">
-        <v>29.34828193078602</v>
+        <v>29.34828193078603</v>
       </c>
       <c r="N46" t="n">
-        <v>28.65044538310743</v>
+        <v>28.65044538310744</v>
       </c>
       <c r="O46" t="n">
-        <v>26.46332352026105</v>
+        <v>26.46332352026106</v>
       </c>
       <c r="P46" t="n">
-        <v>22.64394495199078</v>
+        <v>22.64394495199079</v>
       </c>
       <c r="Q46" t="n">
         <v>15.67749375772604</v>
       </c>
       <c r="R46" t="n">
-        <v>8.418291621508301</v>
+        <v>8.418291621508304</v>
       </c>
       <c r="S46" t="n">
-        <v>3.262811370487547</v>
+        <v>3.262811370487549</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7999589692901135</v>
+        <v>0.7999589692901138</v>
       </c>
       <c r="U46" t="n">
         <v>0.0102122421611504</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>32.5139133330781</v>
       </c>
       <c r="L11" t="n">
-        <v>122.7111663740571</v>
+        <v>48.87588813253703</v>
       </c>
       <c r="M11" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="N11" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="O11" t="n">
-        <v>117.7531394498528</v>
+        <v>36.3633379842375</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>32.19361387586693</v>
+        <v>32.19361387586672</v>
       </c>
       <c r="M12" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="N12" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="O12" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="P12" t="n">
-        <v>85.55952557398591</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35571,22 +35571,22 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>122.7111663740571</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="N13" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>66.48541379777986</v>
       </c>
       <c r="P13" t="n">
-        <v>66.48541379778005</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.39519868597471</v>
+        <v>67.39519868597475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,22 +35644,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>118.3351837672717</v>
       </c>
       <c r="K14" t="n">
-        <v>113.5965399757674</v>
+        <v>36.88989593986334</v>
       </c>
       <c r="L14" t="n">
         <v>48.87588813253701</v>
       </c>
       <c r="M14" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="N14" t="n">
-        <v>77.99187771560553</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="O14" t="n">
-        <v>122.7111663740571</v>
+        <v>36.36333798423748</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35729,16 +35729,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>32.19361387586693</v>
+        <v>32.19361387586672</v>
       </c>
       <c r="M15" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="N15" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="O15" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="P15" t="n">
         <v>85.55952557398587</v>
@@ -35796,31 +35796,31 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>28.4297084652173</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.31020798966223</v>
       </c>
       <c r="K16" t="n">
-        <v>122.7111663740571</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>122.7111663740571</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>11.16944610969818</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="O16" t="n">
-        <v>122.7111663740571</v>
+        <v>31.14069602887541</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35884,34 +35884,34 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>122.7111663740571</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>67.0416273433619</v>
+        <v>48.87588813253703</v>
       </c>
       <c r="M17" t="n">
-        <v>83.55147896784153</v>
+        <v>83.55147896784158</v>
       </c>
       <c r="N17" t="n">
-        <v>77.99187771560553</v>
+        <v>101.0123756566658</v>
       </c>
       <c r="O17" t="n">
-        <v>36.36333798423748</v>
+        <v>36.3633379842375</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>93.37239145668451</v>
       </c>
       <c r="T17" t="n">
-        <v>98.22715018692057</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>32.19361387586672</v>
       </c>
       <c r="L18" t="n">
-        <v>32.19361387586693</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="N18" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="O18" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="P18" t="n">
-        <v>85.55952557398587</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,37 +36118,37 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>59.3838359252977</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>48.87588813253701</v>
+        <v>48.87588813253703</v>
       </c>
       <c r="M20" t="n">
-        <v>83.55147896784153</v>
+        <v>83.55147896784158</v>
       </c>
       <c r="N20" t="n">
-        <v>122.7111663740571</v>
+        <v>77.99187771560555</v>
       </c>
       <c r="O20" t="n">
-        <v>36.36333798423748</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.785225469745977</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>93.3723914566844</v>
+        <v>93.37239145668457</v>
       </c>
       <c r="T20" t="n">
-        <v>98.22715018692051</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>32.19361387586693</v>
+        <v>32.19361387586672</v>
       </c>
       <c r="M21" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="N21" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="O21" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="P21" t="n">
-        <v>85.55952557398587</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>108.0369387235313</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>48.87588813253701</v>
+        <v>48.87588813253703</v>
       </c>
       <c r="M23" t="n">
-        <v>83.55147896784153</v>
+        <v>83.55147896784158</v>
       </c>
       <c r="N23" t="n">
-        <v>122.7111663740571</v>
+        <v>77.99187771560555</v>
       </c>
       <c r="O23" t="n">
-        <v>122.7111663740571</v>
+        <v>36.3633379842375</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>116.3928893977448</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>32.19361387586693</v>
+        <v>32.19361387586672</v>
       </c>
       <c r="M24" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="N24" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="O24" t="n">
-        <v>122.7111663740571</v>
+        <v>122.7111663740569</v>
       </c>
       <c r="P24" t="n">
-        <v>85.55952557398587</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36601,22 +36601,22 @@
         <v>261.7964721988196</v>
       </c>
       <c r="M26" t="n">
-        <v>296.472063034125</v>
+        <v>296.4720630341242</v>
       </c>
       <c r="N26" t="n">
-        <v>290.9124617818881</v>
+        <v>290.9124617818882</v>
       </c>
       <c r="O26" t="n">
         <v>249.2839220505201</v>
       </c>
       <c r="P26" t="n">
-        <v>199.3623440479435</v>
+        <v>199.3623440479436</v>
       </c>
       <c r="Q26" t="n">
         <v>124.3606161369054</v>
       </c>
       <c r="R26" t="n">
-        <v>18.70901417889291</v>
+        <v>18.70901417889295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.26828800158317</v>
+        <v>39.26828800158319</v>
       </c>
       <c r="L27" t="n">
         <v>119.7571625941459</v>
@@ -36689,7 +36689,7 @@
         <v>134.3890022971983</v>
       </c>
       <c r="P27" t="n">
-        <v>85.55952557398587</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36756,25 +36756,25 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>39.36214143350364</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>71.76833035909462</v>
+        <v>197.1325457170168</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>155.0206171058119</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.705739685614104</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0441979461646</v>
+        <v>137.0441979461647</v>
       </c>
       <c r="K29" t="n">
         <v>207.550101296444</v>
@@ -36853,7 +36853,7 @@
         <v>124.3606161369054</v>
       </c>
       <c r="R29" t="n">
-        <v>18.70901417889297</v>
+        <v>18.70901417889298</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.26828800158317</v>
+        <v>39.26828800158319</v>
       </c>
       <c r="L30" t="n">
         <v>119.7571625941459</v>
@@ -36926,7 +36926,7 @@
         <v>134.3890022971983</v>
       </c>
       <c r="P30" t="n">
-        <v>85.55952557398587</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36999,16 +36999,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>150.3904742856525</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>155.020617105812</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.10421286486769</v>
+        <v>81.47407004470827</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>207.550101296444</v>
       </c>
       <c r="L32" t="n">
-        <v>261.7964721988197</v>
+        <v>261.7964721988196</v>
       </c>
       <c r="M32" t="n">
         <v>296.4720630341242</v>
@@ -37087,10 +37087,10 @@
         <v>199.3623440479436</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.3606161369055</v>
+        <v>124.3606161369054</v>
       </c>
       <c r="R32" t="n">
-        <v>18.709014178893</v>
+        <v>18.70901417889298</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.26828800158317</v>
+        <v>39.26828800158319</v>
       </c>
       <c r="L33" t="n">
         <v>119.7571625941459</v>
@@ -37163,7 +37163,7 @@
         <v>134.3890022971983</v>
       </c>
       <c r="P33" t="n">
-        <v>85.55952557398587</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37236,13 +37236,13 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>81.47407004470804</v>
+        <v>60.37675667013293</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>176.1179304803873</v>
       </c>
       <c r="P34" t="n">
-        <v>155.020617105812</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.712628651176768</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>172.4348246688263</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>242.9407280191057</v>
+        <v>242.9407280191056</v>
       </c>
       <c r="L35" t="n">
-        <v>94.51657790747375</v>
+        <v>48.87588813253703</v>
       </c>
       <c r="M35" t="n">
-        <v>83.55147896784153</v>
+        <v>83.55147896784158</v>
       </c>
       <c r="N35" t="n">
-        <v>77.99187771560553</v>
+        <v>326.3030885045497</v>
       </c>
       <c r="O35" t="n">
-        <v>284.6745487731818</v>
+        <v>203.4291568454734</v>
       </c>
       <c r="P35" t="n">
-        <v>234.7529707706052</v>
+        <v>234.7529707706051</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>159.751242859567</v>
       </c>
       <c r="R35" t="n">
-        <v>54.09964090155464</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>21.0372594970361</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>25.89201822727222</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.26828800158317</v>
+        <v>39.26828800158319</v>
       </c>
       <c r="L36" t="n">
         <v>119.7571625941459</v>
@@ -37400,7 +37400,7 @@
         <v>134.3890022971983</v>
       </c>
       <c r="P36" t="n">
-        <v>85.55952557398587</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>35.71794805919296</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>25.96360100606499</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37485,10 +37485,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>45.09636640827583</v>
+        <v>45.09636640827574</v>
       </c>
       <c r="S37" t="n">
-        <v>12.95654265762203</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37497,7 +37497,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>3.202195604494307</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.712628651176683</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>103.5293000304818</v>
+        <v>172.4348246688263</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>297.1870989214812</v>
+        <v>297.1870989214813</v>
       </c>
       <c r="M38" t="n">
-        <v>328.2164562649701</v>
+        <v>152.571574121153</v>
       </c>
       <c r="N38" t="n">
-        <v>77.99187771560553</v>
+        <v>326.3030885045497</v>
       </c>
       <c r="O38" t="n">
-        <v>36.36333798423748</v>
+        <v>36.3633379842375</v>
       </c>
       <c r="P38" t="n">
         <v>234.7529707706051</v>
       </c>
       <c r="Q38" t="n">
-        <v>159.751242859567</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.09964090155455</v>
+        <v>54.09964090155457</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>25.89201822727213</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.26828800158317</v>
+        <v>39.26828800158319</v>
       </c>
       <c r="L39" t="n">
         <v>119.7571625941459</v>
@@ -37637,7 +37637,7 @@
         <v>134.3890022971983</v>
       </c>
       <c r="P39" t="n">
-        <v>85.55952557398587</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>80.81431446746871</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37722,13 +37722,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>45.09636640827574</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>11.14785397284959</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.57009408634337</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37777,34 +37777,34 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.7221960176495</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>196.4019512579981</v>
+        <v>235.2280993679289</v>
       </c>
       <c r="L41" t="n">
-        <v>48.87588813253701</v>
+        <v>289.4744702703046</v>
       </c>
       <c r="M41" t="n">
-        <v>324.150061105609</v>
+        <v>324.1500611056091</v>
       </c>
       <c r="N41" t="n">
-        <v>318.590459853373</v>
+        <v>190.3296856049856</v>
       </c>
       <c r="O41" t="n">
-        <v>36.36333798423748</v>
+        <v>276.961920122005</v>
       </c>
       <c r="P41" t="n">
-        <v>227.0403421194284</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>46.38701225037786</v>
+        <v>46.38701225037788</v>
       </c>
       <c r="S41" t="n">
-        <v>13.32463084585933</v>
+        <v>13.32463084585934</v>
       </c>
       <c r="T41" t="n">
         <v>18.17938957609545</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.26828800158317</v>
+        <v>39.26828800158319</v>
       </c>
       <c r="L42" t="n">
         <v>119.7571625941459</v>
@@ -37874,7 +37874,7 @@
         <v>134.3890022971983</v>
       </c>
       <c r="P42" t="n">
-        <v>85.55952557398587</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37950,13 +37950,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
         <v>104.3569756867327</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,31 +38020,31 @@
         <v>235.2280993679289</v>
       </c>
       <c r="L44" t="n">
-        <v>289.4744702703046</v>
+        <v>48.87588813253703</v>
       </c>
       <c r="M44" t="n">
-        <v>83.55147896784153</v>
+        <v>324.1500611056091</v>
       </c>
       <c r="N44" t="n">
-        <v>77.99187771560553</v>
+        <v>318.590459853373</v>
       </c>
       <c r="O44" t="n">
-        <v>276.961920122005</v>
+        <v>240.1504185642894</v>
       </c>
       <c r="P44" t="n">
         <v>227.0403421194284</v>
       </c>
       <c r="Q44" t="n">
-        <v>125.8960479077187</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>46.38701225037786</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>13.32463084585933</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.17938957609545</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.26828800158317</v>
+        <v>39.26828800158319</v>
       </c>
       <c r="L45" t="n">
         <v>119.7571625941459</v>
@@ -38111,7 +38111,7 @@
         <v>134.3890022971983</v>
       </c>
       <c r="P45" t="n">
-        <v>85.55952557398587</v>
+        <v>85.55952557398588</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>44.87185848802171</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -38193,16 +38193,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>104.3569756867328</v>
       </c>
       <c r="R46" t="n">
-        <v>37.38373775709906</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>5.243914006445259</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>16.85746543516668</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
